--- a/návrhy/obrázky.xlsx
+++ b/návrhy/obrázky.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="hodnota" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,12 @@
     <sheet name="pole" sheetId="3" r:id="rId3"/>
     <sheet name="číslo" sheetId="4" r:id="rId4"/>
     <sheet name="řetězec" sheetId="5" r:id="rId5"/>
+    <sheet name="komprese" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">číslo!$A$2:$R$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">hodnota!$A$1:$M$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">komprese!$A$14:$X$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">objekt!$A$2:$N$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">pole!$A$3:$M$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">řetězec!$A$1:$P$24</definedName>
@@ -85,6 +87,2558 @@
 </styleSheet>
 </file>
 
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{177138E0-DF27-4F09-AF08-971151AF2B30}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/process1" loCatId="process" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{229AD95A-B73C-4DE5-9C5E-D711C2FF6FEE}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ"/>
+            <a:t>vstupní data</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{39826125-C640-4F24-8DB4-1C8A22881135}" type="parTrans" cxnId="{F8CD2D98-C3BC-4990-B556-43DB8B97C742}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{893438A0-4A21-4D67-B249-16C2A6545D8E}" type="sibTrans" cxnId="{F8CD2D98-C3BC-4990-B556-43DB8B97C742}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr lIns="324000"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{024B3F46-A888-4CDC-89D6-B15EA4E533DD}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ"/>
+            <a:t>komprimovaná data</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0B2F0D8B-0DA0-4180-8BA6-DCCDEF018FB4}" type="parTrans" cxnId="{00DEE303-DABA-4170-B0EA-03394594B271}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{228BF450-7F35-4141-A3F0-A3C0460A46B9}" type="sibTrans" cxnId="{00DEE303-DABA-4170-B0EA-03394594B271}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr lIns="36000" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{38B1A2EA-4548-406F-85C3-5B0359E7C329}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ"/>
+            <a:t>rekonstruovaná data</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7C1D3FD3-CC3B-4F03-B374-8ABA3BCABC89}" type="parTrans" cxnId="{4AABBEE3-C7A3-471A-80A0-1CE5DE4DAA74}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B16BA8AE-53A9-4B7D-BCBD-8BDEFF37BBE8}" type="sibTrans" cxnId="{4AABBEE3-C7A3-471A-80A0-1CE5DE4DAA74}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9F4EEE12-3A03-4D91-9B69-C194237E936A}" type="pres">
+      <dgm:prSet presAssocID="{177138E0-DF27-4F09-AF08-971151AF2B30}" presName="Name0" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BFEB9D99-D40E-4D13-B587-8941E8CD599A}" type="pres">
+      <dgm:prSet presAssocID="{229AD95A-B73C-4DE5-9C5E-D711C2FF6FEE}" presName="node" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="3" custScaleX="57505" custScaleY="40523">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C3F8DFA7-14A5-49BC-9407-604807BC23F0}" type="pres">
+      <dgm:prSet presAssocID="{893438A0-4A21-4D67-B249-16C2A6545D8E}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="0" presStyleCnt="2" custScaleX="145627"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8928BA19-14B0-4DEA-BF02-F1F32EF188FB}" type="pres">
+      <dgm:prSet presAssocID="{893438A0-4A21-4D67-B249-16C2A6545D8E}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D02B45BE-C1DA-419C-8D74-9FA7D9520F43}" type="pres">
+      <dgm:prSet presAssocID="{024B3F46-A888-4CDC-89D6-B15EA4E533DD}" presName="node" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="3" custScaleX="57505" custScaleY="40523" custLinFactNeighborX="8344" custLinFactNeighborY="240">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4FF633EA-6EC3-4A74-B932-96D984980708}" type="pres">
+      <dgm:prSet presAssocID="{228BF450-7F35-4141-A3F0-A3C0460A46B9}" presName="sibTrans" presStyleLbl="sibTrans2D1" presStyleIdx="1" presStyleCnt="2" custScaleX="161636"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{95314FE6-2D14-4117-9B47-8F2D9BA4FB53}" type="pres">
+      <dgm:prSet presAssocID="{228BF450-7F35-4141-A3F0-A3C0460A46B9}" presName="connectorText" presStyleLbl="sibTrans2D1" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B101A5FB-E04F-4AA7-9D08-2D932DE8CE50}" type="pres">
+      <dgm:prSet presAssocID="{38B1A2EA-4548-406F-85C3-5B0359E7C329}" presName="node" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="3" custScaleX="57505" custScaleY="40523">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{6682B039-AE30-47A7-A655-B676B98A3A15}" type="presOf" srcId="{024B3F46-A888-4CDC-89D6-B15EA4E533DD}" destId="{D02B45BE-C1DA-419C-8D74-9FA7D9520F43}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{8551169A-8955-400C-8C86-0B18F176164D}" type="presOf" srcId="{38B1A2EA-4548-406F-85C3-5B0359E7C329}" destId="{B101A5FB-E04F-4AA7-9D08-2D932DE8CE50}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{720F9EC7-84FC-477B-B395-0A376C2ED2CC}" type="presOf" srcId="{893438A0-4A21-4D67-B249-16C2A6545D8E}" destId="{C3F8DFA7-14A5-49BC-9407-604807BC23F0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{F8CD2D98-C3BC-4990-B556-43DB8B97C742}" srcId="{177138E0-DF27-4F09-AF08-971151AF2B30}" destId="{229AD95A-B73C-4DE5-9C5E-D711C2FF6FEE}" srcOrd="0" destOrd="0" parTransId="{39826125-C640-4F24-8DB4-1C8A22881135}" sibTransId="{893438A0-4A21-4D67-B249-16C2A6545D8E}"/>
+    <dgm:cxn modelId="{00DEE303-DABA-4170-B0EA-03394594B271}" srcId="{177138E0-DF27-4F09-AF08-971151AF2B30}" destId="{024B3F46-A888-4CDC-89D6-B15EA4E533DD}" srcOrd="1" destOrd="0" parTransId="{0B2F0D8B-0DA0-4180-8BA6-DCCDEF018FB4}" sibTransId="{228BF450-7F35-4141-A3F0-A3C0460A46B9}"/>
+    <dgm:cxn modelId="{B067D930-ECF8-4294-9D3C-2AC3E305D791}" type="presOf" srcId="{228BF450-7F35-4141-A3F0-A3C0460A46B9}" destId="{4FF633EA-6EC3-4A74-B932-96D984980708}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{69554927-71A8-44E1-BC4A-9420C07F1B72}" type="presOf" srcId="{893438A0-4A21-4D67-B249-16C2A6545D8E}" destId="{8928BA19-14B0-4DEA-BF02-F1F32EF188FB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{AEE02929-4D9F-4509-B0FC-5B11D656BF32}" type="presOf" srcId="{177138E0-DF27-4F09-AF08-971151AF2B30}" destId="{9F4EEE12-3A03-4D91-9B69-C194237E936A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{4AABBEE3-C7A3-471A-80A0-1CE5DE4DAA74}" srcId="{177138E0-DF27-4F09-AF08-971151AF2B30}" destId="{38B1A2EA-4548-406F-85C3-5B0359E7C329}" srcOrd="2" destOrd="0" parTransId="{7C1D3FD3-CC3B-4F03-B374-8ABA3BCABC89}" sibTransId="{B16BA8AE-53A9-4B7D-BCBD-8BDEFF37BBE8}"/>
+    <dgm:cxn modelId="{03437214-7920-4C58-93CD-89A544938812}" type="presOf" srcId="{228BF450-7F35-4141-A3F0-A3C0460A46B9}" destId="{95314FE6-2D14-4117-9B47-8F2D9BA4FB53}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{2F91C906-6DB2-473E-B172-9F17A5C5B4DE}" type="presOf" srcId="{229AD95A-B73C-4DE5-9C5E-D711C2FF6FEE}" destId="{BFEB9D99-D40E-4D13-B587-8941E8CD599A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{A874D51A-8D06-41C9-907F-13E65C02EFB0}" type="presParOf" srcId="{9F4EEE12-3A03-4D91-9B69-C194237E936A}" destId="{BFEB9D99-D40E-4D13-B587-8941E8CD599A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{08DDF5DF-D47B-4F85-A3C7-08C3EF298E10}" type="presParOf" srcId="{9F4EEE12-3A03-4D91-9B69-C194237E936A}" destId="{C3F8DFA7-14A5-49BC-9407-604807BC23F0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{67069ADD-B9AA-4B5B-8585-A7B916E3B21E}" type="presParOf" srcId="{C3F8DFA7-14A5-49BC-9407-604807BC23F0}" destId="{8928BA19-14B0-4DEA-BF02-F1F32EF188FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{578A0A84-FBAB-45EB-9EF2-AF111A97F823}" type="presParOf" srcId="{9F4EEE12-3A03-4D91-9B69-C194237E936A}" destId="{D02B45BE-C1DA-419C-8D74-9FA7D9520F43}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{35187A49-D017-4DE9-B767-AD314C7C5AB7}" type="presParOf" srcId="{9F4EEE12-3A03-4D91-9B69-C194237E936A}" destId="{4FF633EA-6EC3-4A74-B932-96D984980708}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{BF838993-8D93-4007-8FDC-E521AFEB8744}" type="presParOf" srcId="{4FF633EA-6EC3-4A74-B932-96D984980708}" destId="{95314FE6-2D14-4117-9B47-8F2D9BA4FB53}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{9474710C-5D67-418B-8D27-6A80C25B69B3}" type="presParOf" srcId="{9F4EEE12-3A03-4D91-9B69-C194237E936A}" destId="{B101A5FB-E04F-4AA7-9D08-2D932DE8CE50}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{BFEB9D99-D40E-4D13-B587-8941E8CD599A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="353" y="1142837"/>
+          <a:ext cx="3188444" cy="1348112"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="133350" tIns="133350" rIns="133350" bIns="133350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1555750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3500" kern="1200"/>
+            <a:t>vstupní data</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="39838" y="1182322"/>
+        <a:ext cx="3109474" cy="1269142"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C3F8DFA7-14A5-49BC-9407-604807BC23F0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4972">
+          <a:off x="3489875" y="1133401"/>
+          <a:ext cx="1800160" cy="1375070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="60000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="324000" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="l" defTabSz="1244600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ" sz="2800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3489875" y="1408117"/>
+        <a:ext cx="1387639" cy="825042"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D02B45BE-C1DA-419C-8D74-9FA7D9520F43}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5521143" y="1150821"/>
+          <a:ext cx="3188444" cy="1348112"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="133350" tIns="133350" rIns="133350" bIns="133350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1555750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3500" kern="1200"/>
+            <a:t>komprimovaná data</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5560628" y="1190306"/>
+        <a:ext cx="3109474" cy="1269142"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4FF633EA-6EC3-4A74-B932-96D984980708}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="21594813">
+          <a:off x="8891873" y="1133302"/>
+          <a:ext cx="1801893" cy="1375070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 60000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:tint val="60000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="36000" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1244600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ" sz="2800" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8891873" y="1408627"/>
+        <a:ext cx="1389372" cy="825042"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B101A5FB-E04F-4AA7-9D08-2D932DE8CE50}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10812952" y="1142837"/>
+          <a:ext cx="3188444" cy="1348112"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="133350" tIns="133350" rIns="133350" bIns="133350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="1555750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3500" kern="1200"/>
+            <a:t>rekonstruovaná data</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="10852437" y="1182322"/>
+        <a:ext cx="3109474" cy="1269142"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/process1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="process" pri="1000"/>
+    <dgm:cat type="convert" pri="15000"/>
+  </dgm:catLst>
+  <dgm:sampData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="Name0">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name1">
+      <dgm:if name="Name2" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="lin"/>
+      </dgm:if>
+      <dgm:else name="Name3">
+        <dgm:alg type="lin">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="ch" ptType="node" refType="w"/>
+      <dgm:constr type="h" for="ch" ptType="node" op="equ"/>
+      <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+      <dgm:constr type="w" for="ch" ptType="sibTrans" refType="w" refFor="ch" refPtType="node" op="equ" fact="0.4"/>
+      <dgm:constr type="h" for="ch" ptType="sibTrans" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" forName="connectorText" op="equ" val="55"/>
+      <dgm:constr type="primFontSz" for="des" forName="connectorText" refType="primFontSz" refFor="ch" refPtType="node" op="lte" fact="0.8"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="nodesForEach" axis="ch" ptType="node">
+      <dgm:layoutNode name="node">
+        <dgm:varLst>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:varLst>
+        <dgm:alg type="tx"/>
+        <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+          <dgm:adjLst>
+            <dgm:adj idx="1" val="0.1"/>
+          </dgm:adjLst>
+        </dgm:shape>
+        <dgm:presOf axis="desOrSelf" ptType="node"/>
+        <dgm:constrLst>
+          <dgm:constr type="h" refType="w" fact="0.6"/>
+          <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+          <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+          <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+          <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+        </dgm:constrLst>
+        <dgm:ruleLst>
+          <dgm:rule type="primFontSz" val="18" fact="NaN" max="NaN"/>
+          <dgm:rule type="h" val="NaN" fact="1.5" max="NaN"/>
+          <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          <dgm:rule type="h" val="INF" fact="NaN" max="NaN"/>
+        </dgm:ruleLst>
+      </dgm:layoutNode>
+      <dgm:forEach name="sibTransForEach" axis="followSib" ptType="sibTrans" cnt="1">
+        <dgm:layoutNode name="sibTrans">
+          <dgm:alg type="conn">
+            <dgm:param type="begPts" val="auto"/>
+            <dgm:param type="endPts" val="auto"/>
+          </dgm:alg>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self"/>
+          <dgm:constrLst>
+            <dgm:constr type="h" refType="w" fact="0.62"/>
+            <dgm:constr type="connDist"/>
+            <dgm:constr type="begPad" refType="connDist" fact="0.25"/>
+            <dgm:constr type="endPad" refType="connDist" fact="0.22"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="connectorText">
+            <dgm:alg type="tx">
+              <dgm:param type="autoTxRot" val="grav"/>
+            </dgm:alg>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="" hideGeom="1">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self"/>
+            <dgm:constrLst>
+              <dgm:constr type="lMarg"/>
+              <dgm:constr type="rMarg"/>
+              <dgm:constr type="tMarg"/>
+              <dgm:constr type="bMarg"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2593,7 +5147,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="cs-CZ" sz="2400"/>
-            <a:t>pole</a:t>
+            <a:t>hodnota</a:t>
           </a:r>
           <a:endParaRPr lang="cs-CZ" sz="1100"/>
         </a:p>
@@ -3047,25 +5601,22 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>63181</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>49301</xdr:rowOff>
+      <xdr:rowOff>20726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>468074</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>51290</xdr:rowOff>
+      <xdr:rowOff>22715</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="50" name="Přímá spojnice 49"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="49" idx="2"/>
-          <a:endCxn id="48" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2501581" y="430301"/>
+          <a:off x="2501581" y="401726"/>
           <a:ext cx="4062493" cy="1989"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10993,16 +13544,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>582182</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259797</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>138829</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>441511</xdr:colOff>
+      <xdr:rowOff>138828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119126</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>35329</xdr:rowOff>
+      <xdr:rowOff>35328</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11011,8 +13562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7277560" y="3948829"/>
-          <a:ext cx="468000" cy="468000"/>
+          <a:off x="3908605" y="3948828"/>
+          <a:ext cx="467463" cy="468000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -11413,6 +13964,284 @@
           <a:r>
             <a:rPr lang="cs-CZ" sz="2400"/>
             <a:t>\</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>178769</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>443090</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>179503</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Vývojový diagram: postup 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219442" y="329503"/>
+          <a:ext cx="2696860" cy="612000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1600"/>
+            <a:t>libovolný Unicode znak</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1600" baseline="0"/>
+            <a:t> vyjma " a \ a speciálních znaků </a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>338496</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>602092</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>34038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Vývojový diagram: postup 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4595438" y="3947538"/>
+          <a:ext cx="2088000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1600"/>
+            <a:t>4 hexadecimální číslice</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextovéPole 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="3133725"/>
+          <a:ext cx="1647825" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>komprese</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextovéPole 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="3133725"/>
+          <a:ext cx="1752600" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dekomprese</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11704,7 +14533,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11751,8 +14580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11761,4 +14590,23 @@
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="3" scale="92" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/návrhy/obrázky.xlsx
+++ b/návrhy/obrázky.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="hodnota" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,12 @@
     <sheet name="číslo" sheetId="4" r:id="rId4"/>
     <sheet name="řetězec" sheetId="5" r:id="rId5"/>
     <sheet name="komprese" sheetId="6" r:id="rId6"/>
+    <sheet name="binárni strom Z1" sheetId="7" r:id="rId7"/>
+    <sheet name="binární strom Z2" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'binárni strom Z1'!$A$1:$Z$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'binární strom Z2'!$A$1:$AF$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">číslo!$A$2:$R$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">hodnota!$A$1:$M$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">komprese!$A$14:$X$22</definedName>
@@ -834,6 +838,1500 @@
 </dgm:colorsDef>
 </file>
 
+<file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
 <file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
@@ -1040,6 +2538,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
@@ -1049,8 +2554,8 @@
     <dgm:cxn modelId="{F8CD2D98-C3BC-4990-B556-43DB8B97C742}" srcId="{177138E0-DF27-4F09-AF08-971151AF2B30}" destId="{229AD95A-B73C-4DE5-9C5E-D711C2FF6FEE}" srcOrd="0" destOrd="0" parTransId="{39826125-C640-4F24-8DB4-1C8A22881135}" sibTransId="{893438A0-4A21-4D67-B249-16C2A6545D8E}"/>
     <dgm:cxn modelId="{00DEE303-DABA-4170-B0EA-03394594B271}" srcId="{177138E0-DF27-4F09-AF08-971151AF2B30}" destId="{024B3F46-A888-4CDC-89D6-B15EA4E533DD}" srcOrd="1" destOrd="0" parTransId="{0B2F0D8B-0DA0-4180-8BA6-DCCDEF018FB4}" sibTransId="{228BF450-7F35-4141-A3F0-A3C0460A46B9}"/>
     <dgm:cxn modelId="{B067D930-ECF8-4294-9D3C-2AC3E305D791}" type="presOf" srcId="{228BF450-7F35-4141-A3F0-A3C0460A46B9}" destId="{4FF633EA-6EC3-4A74-B932-96D984980708}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+    <dgm:cxn modelId="{AEE02929-4D9F-4509-B0FC-5B11D656BF32}" type="presOf" srcId="{177138E0-DF27-4F09-AF08-971151AF2B30}" destId="{9F4EEE12-3A03-4D91-9B69-C194237E936A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
     <dgm:cxn modelId="{69554927-71A8-44E1-BC4A-9420C07F1B72}" type="presOf" srcId="{893438A0-4A21-4D67-B249-16C2A6545D8E}" destId="{8928BA19-14B0-4DEA-BF02-F1F32EF188FB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
-    <dgm:cxn modelId="{AEE02929-4D9F-4509-B0FC-5B11D656BF32}" type="presOf" srcId="{177138E0-DF27-4F09-AF08-971151AF2B30}" destId="{9F4EEE12-3A03-4D91-9B69-C194237E936A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
     <dgm:cxn modelId="{4AABBEE3-C7A3-471A-80A0-1CE5DE4DAA74}" srcId="{177138E0-DF27-4F09-AF08-971151AF2B30}" destId="{38B1A2EA-4548-406F-85C3-5B0359E7C329}" srcOrd="2" destOrd="0" parTransId="{7C1D3FD3-CC3B-4F03-B374-8ABA3BCABC89}" sibTransId="{B16BA8AE-53A9-4B7D-BCBD-8BDEFF37BBE8}"/>
     <dgm:cxn modelId="{03437214-7920-4C58-93CD-89A544938812}" type="presOf" srcId="{228BF450-7F35-4141-A3F0-A3C0460A46B9}" destId="{95314FE6-2D14-4117-9B47-8F2D9BA4FB53}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
     <dgm:cxn modelId="{2F91C906-6DB2-473E-B172-9F17A5C5B4DE}" type="presOf" srcId="{229AD95A-B73C-4DE5-9C5E-D711C2FF6FEE}" destId="{BFEB9D99-D40E-4D13-B587-8941E8CD599A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
@@ -1061,6 +2566,585 @@
     <dgm:cxn modelId="{35187A49-D017-4DE9-B767-AD314C7C5AB7}" type="presParOf" srcId="{9F4EEE12-3A03-4D91-9B69-C194237E936A}" destId="{4FF633EA-6EC3-4A74-B932-96D984980708}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
     <dgm:cxn modelId="{BF838993-8D93-4007-8FDC-E521AFEB8744}" type="presParOf" srcId="{4FF633EA-6EC3-4A74-B932-96D984980708}" destId="{95314FE6-2D14-4117-9B47-8F2D9BA4FB53}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
     <dgm:cxn modelId="{9474710C-5D67-418B-8D27-6A80C25B69B3}" type="presParOf" srcId="{9F4EEE12-3A03-4D91-9B69-C194237E936A}" destId="{B101A5FB-E04F-4AA7-9D08-2D932DE8CE50}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/process1"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{DDEF5871-4F25-42FE-9CE8-F056F00558E4}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{19FF0E3F-7E33-4B27-93DA-242269A13426}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ"/>
+            <a:t>Je to znak </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" i="1"/>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ"/>
+            <a:t> nebo </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" i="1">
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>β</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{47B27231-0C65-4D0C-A1E5-2E845AC22F3A}" type="parTrans" cxnId="{11E425A5-30DC-4550-9B52-9B7AF843962A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E19D0F34-44D5-4987-8D06-CB880B16C932}" type="sibTrans" cxnId="{11E425A5-30DC-4550-9B52-9B7AF843962A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8B1FB79F-ADD1-480A-9ABF-305EDDC5D67C}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ"/>
+            <a:t>Je to znak </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" i="1"/>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ"/>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C0A9E27D-F2C7-4528-B84F-FE6ECE9FE6FA}" type="parTrans" cxnId="{165E3CC0-851B-49A2-AFF3-52F1F6C194A7}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{15A61C03-3C7E-46EE-9BB0-B7F2434D777A}" type="sibTrans" cxnId="{165E3CC0-851B-49A2-AFF3-52F1F6C194A7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F729CCBA-BA02-460F-B5C3-EC439C10F9FA}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ"/>
+            <a:t>Je to znak </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" i="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>γ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ"/>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" type="parTrans" cxnId="{F5CFFEDC-14C8-4260-86AF-278B43CF0645}">
+      <dgm:prSet/>
+      <dgm:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </dgm:spPr>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{897141A6-C8F4-4C6C-82E0-41E912657F69}" type="sibTrans" cxnId="{F5CFFEDC-14C8-4260-86AF-278B43CF0645}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AC27CDF4-73C4-4AE2-A52C-D6F90277EF34}" type="pres">
+      <dgm:prSet presAssocID="{DDEF5871-4F25-42FE-9CE8-F056F00558E4}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5AACB547-8E71-4AD3-9D48-67E7A0A0A499}" type="pres">
+      <dgm:prSet presAssocID="{19FF0E3F-7E33-4B27-93DA-242269A13426}" presName="root1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B053045D-01DC-4505-AE2A-971AC5C9B856}" type="pres">
+      <dgm:prSet presAssocID="{19FF0E3F-7E33-4B27-93DA-242269A13426}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1" custScaleX="31338" custScaleY="22619" custLinFactNeighborX="-9612">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EC7E351D-1D40-418D-ADE4-7922FD2C640B}" type="pres">
+      <dgm:prSet presAssocID="{19FF0E3F-7E33-4B27-93DA-242269A13426}" presName="level2hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B144FB2B-4212-42C1-A5D2-9FB2ED92D324}" type="pres">
+      <dgm:prSet presAssocID="{C0A9E27D-F2C7-4528-B84F-FE6ECE9FE6FA}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4B9ACEB6-1BBD-4470-B6AD-CB037415A909}" type="pres">
+      <dgm:prSet presAssocID="{C0A9E27D-F2C7-4528-B84F-FE6ECE9FE6FA}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{214B6DFB-95FF-4345-B313-06A8E58D2C88}" type="pres">
+      <dgm:prSet presAssocID="{8B1FB79F-ADD1-480A-9ABF-305EDDC5D67C}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BF65CDAB-FA01-487D-A059-1FAB1F3ABBCC}" type="pres">
+      <dgm:prSet presAssocID="{8B1FB79F-ADD1-480A-9ABF-305EDDC5D67C}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="2" custScaleX="30452" custScaleY="22619" custLinFactNeighborX="-32692" custLinFactNeighborY="-5280">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A75C35FA-8281-4DFF-8FA2-02DE40067AEB}" type="pres">
+      <dgm:prSet presAssocID="{8B1FB79F-ADD1-480A-9ABF-305EDDC5D67C}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{51A11F62-D734-43E0-B1CD-7B8AC02250C3}" type="pres">
+      <dgm:prSet presAssocID="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AAF5EBC4-AA59-4303-BEEE-5611156F72A0}" type="pres">
+      <dgm:prSet presAssocID="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0E2E070B-62F5-42D9-85CB-89B72D63AC5C}" type="pres">
+      <dgm:prSet presAssocID="{F729CCBA-BA02-460F-B5C3-EC439C10F9FA}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A24B5960-4C0A-401B-9BE5-58D0BC16BE76}" type="pres">
+      <dgm:prSet presAssocID="{F729CCBA-BA02-460F-B5C3-EC439C10F9FA}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="2" custScaleX="30452" custScaleY="22619" custLinFactNeighborX="-32932" custLinFactNeighborY="5440">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AF7F290B-7BE4-4549-A8F1-00E963EE6D66}" type="pres">
+      <dgm:prSet presAssocID="{F729CCBA-BA02-460F-B5C3-EC439C10F9FA}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{E16D3596-609E-4CD6-BA22-FB6FA10E51DC}" type="presOf" srcId="{F729CCBA-BA02-460F-B5C3-EC439C10F9FA}" destId="{A24B5960-4C0A-401B-9BE5-58D0BC16BE76}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{07294F62-AB35-463D-BA34-7CDC0F03FBCA}" type="presOf" srcId="{C0A9E27D-F2C7-4528-B84F-FE6ECE9FE6FA}" destId="{4B9ACEB6-1BBD-4470-B6AD-CB037415A909}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{165E3CC0-851B-49A2-AFF3-52F1F6C194A7}" srcId="{19FF0E3F-7E33-4B27-93DA-242269A13426}" destId="{8B1FB79F-ADD1-480A-9ABF-305EDDC5D67C}" srcOrd="0" destOrd="0" parTransId="{C0A9E27D-F2C7-4528-B84F-FE6ECE9FE6FA}" sibTransId="{15A61C03-3C7E-46EE-9BB0-B7F2434D777A}"/>
+    <dgm:cxn modelId="{41F796F7-77E9-4C7B-8498-03BAF3E12B78}" type="presOf" srcId="{8B1FB79F-ADD1-480A-9ABF-305EDDC5D67C}" destId="{BF65CDAB-FA01-487D-A059-1FAB1F3ABBCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3F42518F-5181-4A58-9F02-01C4B744B1E5}" type="presOf" srcId="{DDEF5871-4F25-42FE-9CE8-F056F00558E4}" destId="{AC27CDF4-73C4-4AE2-A52C-D6F90277EF34}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E89B8B7A-67F7-4C1E-8B0E-FDB6B69B6085}" type="presOf" srcId="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" destId="{51A11F62-D734-43E0-B1CD-7B8AC02250C3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{11E425A5-30DC-4550-9B52-9B7AF843962A}" srcId="{DDEF5871-4F25-42FE-9CE8-F056F00558E4}" destId="{19FF0E3F-7E33-4B27-93DA-242269A13426}" srcOrd="0" destOrd="0" parTransId="{47B27231-0C65-4D0C-A1E5-2E845AC22F3A}" sibTransId="{E19D0F34-44D5-4987-8D06-CB880B16C932}"/>
+    <dgm:cxn modelId="{FC9F1BB8-0C0C-4EDD-AAA6-B764308825BA}" type="presOf" srcId="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" destId="{AAF5EBC4-AA59-4303-BEEE-5611156F72A0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{59428C4C-7C2E-4778-B50F-BC4329F1C29A}" type="presOf" srcId="{19FF0E3F-7E33-4B27-93DA-242269A13426}" destId="{B053045D-01DC-4505-AE2A-971AC5C9B856}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F5CFFEDC-14C8-4260-86AF-278B43CF0645}" srcId="{19FF0E3F-7E33-4B27-93DA-242269A13426}" destId="{F729CCBA-BA02-460F-B5C3-EC439C10F9FA}" srcOrd="1" destOrd="0" parTransId="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" sibTransId="{897141A6-C8F4-4C6C-82E0-41E912657F69}"/>
+    <dgm:cxn modelId="{243E030E-428D-43BE-944A-87CC770FC8C2}" type="presOf" srcId="{C0A9E27D-F2C7-4528-B84F-FE6ECE9FE6FA}" destId="{B144FB2B-4212-42C1-A5D2-9FB2ED92D324}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BF4C31C3-54F9-43E6-9663-17278AF24868}" type="presParOf" srcId="{AC27CDF4-73C4-4AE2-A52C-D6F90277EF34}" destId="{5AACB547-8E71-4AD3-9D48-67E7A0A0A499}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B08F8C36-AFA8-4479-A816-17E97E754269}" type="presParOf" srcId="{5AACB547-8E71-4AD3-9D48-67E7A0A0A499}" destId="{B053045D-01DC-4505-AE2A-971AC5C9B856}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FF2ADB41-8E6C-4406-B663-506B47C760EF}" type="presParOf" srcId="{5AACB547-8E71-4AD3-9D48-67E7A0A0A499}" destId="{EC7E351D-1D40-418D-ADE4-7922FD2C640B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B070B5DD-313A-45CB-B276-F85487F24133}" type="presParOf" srcId="{EC7E351D-1D40-418D-ADE4-7922FD2C640B}" destId="{B144FB2B-4212-42C1-A5D2-9FB2ED92D324}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A783E3C8-21D3-48CC-8E64-FA68522E3915}" type="presParOf" srcId="{B144FB2B-4212-42C1-A5D2-9FB2ED92D324}" destId="{4B9ACEB6-1BBD-4470-B6AD-CB037415A909}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{912D7E21-9756-4889-BFA8-EF643D7C5598}" type="presParOf" srcId="{EC7E351D-1D40-418D-ADE4-7922FD2C640B}" destId="{214B6DFB-95FF-4345-B313-06A8E58D2C88}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{91FFC4C3-7A1C-416C-A150-D4063D5C606E}" type="presParOf" srcId="{214B6DFB-95FF-4345-B313-06A8E58D2C88}" destId="{BF65CDAB-FA01-487D-A059-1FAB1F3ABBCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5D33CABC-132D-4E14-872D-1E34C71DDA73}" type="presParOf" srcId="{214B6DFB-95FF-4345-B313-06A8E58D2C88}" destId="{A75C35FA-8281-4DFF-8FA2-02DE40067AEB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F484F0E2-2C0C-4FD3-BC61-4B9EFEADA2C8}" type="presParOf" srcId="{EC7E351D-1D40-418D-ADE4-7922FD2C640B}" destId="{51A11F62-D734-43E0-B1CD-7B8AC02250C3}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{50E73678-F3D9-4B94-8513-6F4DD23E574B}" type="presParOf" srcId="{51A11F62-D734-43E0-B1CD-7B8AC02250C3}" destId="{AAF5EBC4-AA59-4303-BEEE-5611156F72A0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{985824C7-DA3C-4FA0-9535-722948C802A0}" type="presParOf" srcId="{EC7E351D-1D40-418D-ADE4-7922FD2C640B}" destId="{0E2E070B-62F5-42D9-85CB-89B72D63AC5C}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8C12D543-D263-454D-8898-26BF82F61655}" type="presParOf" srcId="{0E2E070B-62F5-42D9-85CB-89B72D63AC5C}" destId="{A24B5960-4C0A-401B-9BE5-58D0BC16BE76}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6AA8D662-A97A-44F5-AEDD-BA31F3CDFC88}" type="presParOf" srcId="{0E2E070B-62F5-42D9-85CB-89B72D63AC5C}" destId="{AF7F290B-7BE4-4549-A8F1-00E963EE6D66}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{2D860989-9D4D-4845-B555-6DE0FCA6D950}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4034B69B-38CB-43C0-B33D-F94954A7D14C}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100"/>
+            <a:t>Je to znak </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="5100" i="1"/>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2B9FFDE1-991F-405A-84A1-643424D5A939}" type="parTrans" cxnId="{50A621E3-6808-4B14-A88D-50C1464654C8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{92884F08-ACE1-49A0-9B0C-02C6553D3B10}" type="sibTrans" cxnId="{50A621E3-6808-4B14-A88D-50C1464654C8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7331D9DA-6974-4C91-A780-22CA9911BC9F}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100"/>
+            <a:t>Je to znak </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="5100" i="1">
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>β</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A596AFF5-5604-4512-BCAA-4B5DD413741D}" type="parTrans" cxnId="{6E6DCF88-C71D-45F0-9083-FD1520151911}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7DA005F0-5559-496B-A9DC-7002A3312C7D}" type="sibTrans" cxnId="{6E6DCF88-C71D-45F0-9083-FD1520151911}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{10F5901D-81E2-4DBE-B8CA-EED03701240D}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100"/>
+            <a:t>Je to znak </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="5100" i="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>γ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0E3F9E55-0DC8-4696-A008-D90B02825E4E}" type="parTrans" cxnId="{7528D321-F26A-467D-BB6A-5330F2EE263D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EFE44010-530B-4DCC-B76C-BDCF97E6FF03}" type="sibTrans" cxnId="{7528D321-F26A-467D-BB6A-5330F2EE263D}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1A554268-0B44-45EF-89E5-2E93B0811DDE}" type="pres">
+      <dgm:prSet presAssocID="{2D860989-9D4D-4845-B555-6DE0FCA6D950}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{99664041-6924-4B9E-9020-A5D5D0509985}" type="pres">
+      <dgm:prSet presAssocID="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" presName="root1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EE2A5628-33E4-4DFD-AB84-B3D9643EAB44}" type="pres">
+      <dgm:prSet presAssocID="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1" custScaleX="64904" custScaleY="49779" custLinFactNeighborX="2272" custLinFactNeighborY="-5847">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B466F69B-163E-4A45-A5EE-6E3040A99E50}" type="pres">
+      <dgm:prSet presAssocID="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" presName="level2hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4F17FCF2-0236-4B37-8EB9-F1136671CA5C}" type="pres">
+      <dgm:prSet presAssocID="{A596AFF5-5604-4512-BCAA-4B5DD413741D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EF22E825-CAB7-4769-A1B0-5DE516B87371}" type="pres">
+      <dgm:prSet presAssocID="{A596AFF5-5604-4512-BCAA-4B5DD413741D}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D48E45AD-737A-4F94-8926-5A5BAA9A9D6A}" type="pres">
+      <dgm:prSet presAssocID="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{02753F6E-481D-4925-B0E1-E001B3B47707}" type="pres">
+      <dgm:prSet presAssocID="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="1" custScaleX="64904" custScaleY="49779" custLinFactNeighborX="-12013" custLinFactNeighborY="-32553">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3644D3A1-3F33-444A-8368-1F206082E7EE}" type="pres">
+      <dgm:prSet presAssocID="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D536350D-3739-47B7-A20D-545F54F21BCC}" type="pres">
+      <dgm:prSet presAssocID="{0E3F9E55-0DC8-4696-A008-D90B02825E4E}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CF9A7693-EF1C-41D5-A0FF-B381BE1275EA}" type="pres">
+      <dgm:prSet presAssocID="{0E3F9E55-0DC8-4696-A008-D90B02825E4E}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6272736A-4058-445E-8C8F-66567E4475D6}" type="pres">
+      <dgm:prSet presAssocID="{10F5901D-81E2-4DBE-B8CA-EED03701240D}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{88CD22FD-A637-4FC1-8389-2AE1EE70B3B0}" type="pres">
+      <dgm:prSet presAssocID="{10F5901D-81E2-4DBE-B8CA-EED03701240D}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="1" custScaleX="64904" custScaleY="49779" custLinFactNeighborX="-23405" custLinFactNeighborY="-60903">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4722DBF0-361A-4D11-8791-30E445730506}" type="pres">
+      <dgm:prSet presAssocID="{10F5901D-81E2-4DBE-B8CA-EED03701240D}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{898C0048-0A1E-457E-BE51-5FDF2073854F}" type="presOf" srcId="{0E3F9E55-0DC8-4696-A008-D90B02825E4E}" destId="{D536350D-3739-47B7-A20D-545F54F21BCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{708B290B-3D43-4B7C-9288-70753F61A38A}" type="presOf" srcId="{A596AFF5-5604-4512-BCAA-4B5DD413741D}" destId="{EF22E825-CAB7-4769-A1B0-5DE516B87371}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7A7AA1CC-630F-4B82-B9CF-6EBC1B9037CE}" type="presOf" srcId="{2D860989-9D4D-4845-B555-6DE0FCA6D950}" destId="{1A554268-0B44-45EF-89E5-2E93B0811DDE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6E6DCF88-C71D-45F0-9083-FD1520151911}" srcId="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" destId="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" srcOrd="0" destOrd="0" parTransId="{A596AFF5-5604-4512-BCAA-4B5DD413741D}" sibTransId="{7DA005F0-5559-496B-A9DC-7002A3312C7D}"/>
+    <dgm:cxn modelId="{7528D321-F26A-467D-BB6A-5330F2EE263D}" srcId="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" destId="{10F5901D-81E2-4DBE-B8CA-EED03701240D}" srcOrd="0" destOrd="0" parTransId="{0E3F9E55-0DC8-4696-A008-D90B02825E4E}" sibTransId="{EFE44010-530B-4DCC-B76C-BDCF97E6FF03}"/>
+    <dgm:cxn modelId="{D1995D28-E47B-4B4A-9610-49A7B52A760F}" type="presOf" srcId="{0E3F9E55-0DC8-4696-A008-D90B02825E4E}" destId="{CF9A7693-EF1C-41D5-A0FF-B381BE1275EA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{63E33C75-2CC5-40AE-94C1-7A7C562E3869}" type="presOf" srcId="{A596AFF5-5604-4512-BCAA-4B5DD413741D}" destId="{4F17FCF2-0236-4B37-8EB9-F1136671CA5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{84E4B1F5-5340-4952-9D13-D1E00885C44D}" type="presOf" srcId="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" destId="{EE2A5628-33E4-4DFD-AB84-B3D9643EAB44}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{50A621E3-6808-4B14-A88D-50C1464654C8}" srcId="{2D860989-9D4D-4845-B555-6DE0FCA6D950}" destId="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" srcOrd="0" destOrd="0" parTransId="{2B9FFDE1-991F-405A-84A1-643424D5A939}" sibTransId="{92884F08-ACE1-49A0-9B0C-02C6553D3B10}"/>
+    <dgm:cxn modelId="{0AA47C26-8F8C-4DAC-8B2D-9FBB0B1C8EB4}" type="presOf" srcId="{10F5901D-81E2-4DBE-B8CA-EED03701240D}" destId="{88CD22FD-A637-4FC1-8389-2AE1EE70B3B0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B9CE8234-90E0-4431-AE1F-858A330A2FC9}" type="presOf" srcId="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" destId="{02753F6E-481D-4925-B0E1-E001B3B47707}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BB14BC51-4E9E-40E8-8E86-0537C7226D82}" type="presParOf" srcId="{1A554268-0B44-45EF-89E5-2E93B0811DDE}" destId="{99664041-6924-4B9E-9020-A5D5D0509985}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9DF0D9CF-854C-4563-BB0D-EEE975971B42}" type="presParOf" srcId="{99664041-6924-4B9E-9020-A5D5D0509985}" destId="{EE2A5628-33E4-4DFD-AB84-B3D9643EAB44}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{905F402A-42D0-438C-B15E-435ADEFFC773}" type="presParOf" srcId="{99664041-6924-4B9E-9020-A5D5D0509985}" destId="{B466F69B-163E-4A45-A5EE-6E3040A99E50}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FBDEFD1C-3395-4282-B154-C4B988A363F4}" type="presParOf" srcId="{B466F69B-163E-4A45-A5EE-6E3040A99E50}" destId="{4F17FCF2-0236-4B37-8EB9-F1136671CA5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BFDABC7D-E612-4F79-ABF1-7A7EF4A4FFDA}" type="presParOf" srcId="{4F17FCF2-0236-4B37-8EB9-F1136671CA5C}" destId="{EF22E825-CAB7-4769-A1B0-5DE516B87371}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{952E2837-50AB-4902-AC36-562CE2A59ADF}" type="presParOf" srcId="{B466F69B-163E-4A45-A5EE-6E3040A99E50}" destId="{D48E45AD-737A-4F94-8926-5A5BAA9A9D6A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{71572E30-DD00-4122-BDC0-4F55DC390323}" type="presParOf" srcId="{D48E45AD-737A-4F94-8926-5A5BAA9A9D6A}" destId="{02753F6E-481D-4925-B0E1-E001B3B47707}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{10F328AD-D30D-4491-89EC-8404286F08A5}" type="presParOf" srcId="{D48E45AD-737A-4F94-8926-5A5BAA9A9D6A}" destId="{3644D3A1-3F33-444A-8368-1F206082E7EE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E073A455-38BE-4E7C-AC81-77F31DCE150B}" type="presParOf" srcId="{3644D3A1-3F33-444A-8368-1F206082E7EE}" destId="{D536350D-3739-47B7-A20D-545F54F21BCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9DD9BAC0-DD8B-41BC-AE12-9E66CDD6A528}" type="presParOf" srcId="{D536350D-3739-47B7-A20D-545F54F21BCC}" destId="{CF9A7693-EF1C-41D5-A0FF-B381BE1275EA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C7D7D999-55F7-4FCF-A9B1-9798BEE0DD51}" type="presParOf" srcId="{3644D3A1-3F33-444A-8368-1F206082E7EE}" destId="{6272736A-4058-445E-8C8F-66567E4475D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D559D6A1-5DC0-4E99-9108-898491E2D11D}" type="presParOf" srcId="{6272736A-4058-445E-8C8F-66567E4475D6}" destId="{88CD22FD-A637-4FC1-8389-2AE1EE70B3B0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{37708FE8-BB68-4E1F-8B4A-7A14B4FBC050}" type="presParOf" srcId="{6272736A-4058-445E-8C8F-66567E4475D6}" destId="{4722DBF0-361A-4D11-8791-30E445730506}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
@@ -1453,6 +3537,881 @@
       <dsp:txXfrm>
         <a:off x="10852437" y="1182322"/>
         <a:ext cx="3109474" cy="1269142"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{B053045D-01DC-4505-AE2A-971AC5C9B856}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="78569" y="2712358"/>
+          <a:ext cx="4393838" cy="1585682"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32385" tIns="32385" rIns="32385" bIns="32385" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="2266950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
+            <a:t>Je to znak </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200"/>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
+            <a:t> nebo </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200">
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+            </a:rPr>
+            <a:t>β</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="125012" y="2758801"/>
+        <a:ext cx="4300952" cy="1492796"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B144FB2B-4212-42C1-A5D2-9FB2ED92D324}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19473257">
+          <a:off x="4202558" y="2570814"/>
+          <a:ext cx="2912017" cy="180000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="90000"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2912017" y="90000"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5585766" y="2588014"/>
+        <a:ext cx="145600" cy="145600"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{BF65CDAB-FA01-487D-A059-1FAB1F3ABBCC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6844726" y="1023588"/>
+          <a:ext cx="4269614" cy="1585682"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32385" tIns="32385" rIns="32385" bIns="32385" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="2266950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
+            <a:t>Je to znak </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200"/>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="5100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6891169" y="1070031"/>
+        <a:ext cx="4176728" cy="1492796"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{51A11F62-D734-43E0-B1CD-7B8AC02250C3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2160812">
+          <a:off x="4196116" y="4265193"/>
+          <a:ext cx="2891250" cy="180000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="90000"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2891250" y="90000"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ" sz="1000" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5569460" y="4282912"/>
+        <a:ext cx="144562" cy="144562"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A24B5960-4C0A-401B-9BE5-58D0BC16BE76}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6811076" y="4412345"/>
+          <a:ext cx="4269614" cy="1585682"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32385" tIns="32385" rIns="32385" bIns="32385" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="2266950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
+            <a:t>Je to znak </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>γ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="5100" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6857519" y="4458788"/>
+        <a:ext cx="4176728" cy="1492796"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{EE2A5628-33E4-4DFD-AB84-B3D9643EAB44}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="145632" y="2577301"/>
+          <a:ext cx="4139994" cy="1587612"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32385" tIns="32385" rIns="32385" bIns="32385" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="2266950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
+            <a:t>Je to znak </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200"/>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="192132" y="2623801"/>
+        <a:ext cx="4046994" cy="1494612"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4F17FCF2-0236-4B37-8EB9-F1136671CA5C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19953513">
+          <a:off x="4181648" y="2904895"/>
+          <a:ext cx="1848226" cy="80683"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="40341"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1848226" y="40341"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ" sz="600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5059555" y="2899032"/>
+        <a:ext cx="92411" cy="92411"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{02753F6E-481D-4925-B0E1-E001B3B47707}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5925895" y="1725561"/>
+          <a:ext cx="4139994" cy="1587612"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32385" tIns="32385" rIns="32385" bIns="32385" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="2266950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
+            <a:t>Je to znak </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200">
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>β</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5972395" y="1772061"/>
+        <a:ext cx="4046994" cy="1494612"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D536350D-3739-47B7-A20D-545F54F21BCC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="20018521">
+          <a:off x="9960028" y="2026939"/>
+          <a:ext cx="2036524" cy="80683"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="40341"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2036524" y="40341"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ" sz="700" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="10927377" y="2016368"/>
+        <a:ext cx="101826" cy="101826"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{88CD22FD-A637-4FC1-8389-2AE1EE70B3B0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="11890692" y="821388"/>
+          <a:ext cx="4139994" cy="1587612"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32385" tIns="32385" rIns="32385" bIns="32385" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0" algn="ctr" defTabSz="2266950">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
+            <a:t>Je to znak </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>γ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="11937192" y="867888"/>
+        <a:ext cx="4046994" cy="1494612"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -1605,6 +4564,646 @@
 </dgm:layoutDef>
 </file>
 
+<file path=xl/diagrams/layout2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="211"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="311"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="21" destId="211" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="31" destId="311" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="l"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="r"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="des" ptType="node" refType="h"/>
+      <dgm:constr type="w" for="des" ptType="node" refType="h" refFor="des" refPtType="node" fact="2"/>
+      <dgm:constr type="sibSp" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level2hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level3hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sp" for="des" forName="root1" refType="w" refFor="des" refPtType="node" fact="0.4"/>
+      <dgm:constr type="sp" for="des" forName="root2" refType="sp" refFor="des" refForName="root1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" op="equ" val="55"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" refType="primFontSz" refFor="des" refPtType="node" op="lte" fact="0.8"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node">
+        <dgm:layoutNode name="root1">
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="lCtrCh"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name7">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="rCtrCh"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="LevelOneTextNode" styleLbl="node0">
+            <dgm:varLst>
+              <dgm:chPref val="3"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+              <dgm:adjLst>
+                <dgm:adj idx="1" val="0.1"/>
+              </dgm:adjLst>
+            </dgm:shape>
+            <dgm:presOf axis="self"/>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="level2hierChild">
+            <dgm:choose name="Name8">
+              <dgm:if name="Name9" func="var" arg="dir" op="equ" val="norm">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="l"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:else name="Name10">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="r"/>
+                </dgm:alg>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="repeat" axis="ch">
+              <dgm:forEach name="Name11" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="conn2-1">
+                  <dgm:choose name="Name12">
+                    <dgm:if name="Name13" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midR"/>
+                        <dgm:param type="endPts" val="midL"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name14">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midL"/>
+                        <dgm:param type="endPts" val="midR"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="w" val="1"/>
+                    <dgm:constr type="h" val="5"/>
+                    <dgm:constr type="connDist"/>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                    <dgm:constr type="userA" for="ch" refType="connDist"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="connTx">
+                    <dgm:alg type="tx">
+                      <dgm:param type="autoTxRot" val="grav"/>
+                    </dgm:alg>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="userA"/>
+                      <dgm:constr type="w" refType="userA" fact="0.05"/>
+                      <dgm:constr type="h" refType="userA" fact="0.05"/>
+                      <dgm:constr type="lMarg" val="1"/>
+                      <dgm:constr type="rMarg" val="1"/>
+                      <dgm:constr type="tMarg"/>
+                      <dgm:constr type="bMarg"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="h" val="NaN" fact="0.25" max="NaN"/>
+                      <dgm:rule type="w" val="NaN" fact="0.8" max="NaN"/>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name15" axis="self" ptType="node">
+                <dgm:layoutNode name="root2">
+                  <dgm:choose name="Name16">
+                    <dgm:if name="Name17" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="lCtrCh"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name18">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="rCtrCh"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="LevelTwoTextNode">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                      <dgm:adjLst>
+                        <dgm:adj idx="1" val="0.1"/>
+                      </dgm:adjLst>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="level3hierChild">
+                    <dgm:choose name="Name19">
+                      <dgm:if name="Name20" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="l"/>
+                        </dgm:alg>
+                      </dgm:if>
+                      <dgm:else name="Name21">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="r"/>
+                        </dgm:alg>
+                      </dgm:else>
+                    </dgm:choose>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                    <dgm:forEach name="Name22" ref="repeat"/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="211"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="311"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="21" destId="211" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="31" destId="311" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="l"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="r"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="des" ptType="node" refType="h"/>
+      <dgm:constr type="w" for="des" ptType="node" refType="h" refFor="des" refPtType="node" fact="2"/>
+      <dgm:constr type="sibSp" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level2hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level3hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sp" for="des" forName="root1" refType="w" refFor="des" refPtType="node" fact="0.4"/>
+      <dgm:constr type="sp" for="des" forName="root2" refType="sp" refFor="des" refForName="root1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" op="equ" val="55"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" refType="primFontSz" refFor="des" refPtType="node" op="lte" fact="0.8"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node">
+        <dgm:layoutNode name="root1">
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="lCtrCh"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name7">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="rCtrCh"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="LevelOneTextNode" styleLbl="node0">
+            <dgm:varLst>
+              <dgm:chPref val="3"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+              <dgm:adjLst>
+                <dgm:adj idx="1" val="0.1"/>
+              </dgm:adjLst>
+            </dgm:shape>
+            <dgm:presOf axis="self"/>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="level2hierChild">
+            <dgm:choose name="Name8">
+              <dgm:if name="Name9" func="var" arg="dir" op="equ" val="norm">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="l"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:else name="Name10">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="r"/>
+                </dgm:alg>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="repeat" axis="ch">
+              <dgm:forEach name="Name11" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="conn2-1">
+                  <dgm:choose name="Name12">
+                    <dgm:if name="Name13" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midR"/>
+                        <dgm:param type="endPts" val="midL"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name14">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midL"/>
+                        <dgm:param type="endPts" val="midR"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="w" val="1"/>
+                    <dgm:constr type="h" val="5"/>
+                    <dgm:constr type="connDist"/>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                    <dgm:constr type="userA" for="ch" refType="connDist"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="connTx">
+                    <dgm:alg type="tx">
+                      <dgm:param type="autoTxRot" val="grav"/>
+                    </dgm:alg>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="userA"/>
+                      <dgm:constr type="w" refType="userA" fact="0.05"/>
+                      <dgm:constr type="h" refType="userA" fact="0.05"/>
+                      <dgm:constr type="lMarg" val="1"/>
+                      <dgm:constr type="rMarg" val="1"/>
+                      <dgm:constr type="tMarg"/>
+                      <dgm:constr type="bMarg"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="h" val="NaN" fact="0.25" max="NaN"/>
+                      <dgm:rule type="w" val="NaN" fact="0.8" max="NaN"/>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name15" axis="self" ptType="node">
+                <dgm:layoutNode name="root2">
+                  <dgm:choose name="Name16">
+                    <dgm:if name="Name17" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="lCtrCh"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name18">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="rCtrCh"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="LevelTwoTextNode">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                      <dgm:adjLst>
+                        <dgm:adj idx="1" val="0.1"/>
+                      </dgm:adjLst>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="level3hierChild">
+                    <dgm:choose name="Name19">
+                      <dgm:if name="Name20" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="l"/>
+                        </dgm:alg>
+                      </dgm:if>
+                      <dgm:else name="Name21">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="r"/>
+                        </dgm:alg>
+                      </dgm:else>
+                    </dgm:choose>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                    <dgm:forEach name="Name22" ref="repeat"/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
 <file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
@@ -2639,6 +6238,2074 @@
 </dgm:styleDef>
 </file>
 
+<file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14242,6 +19909,1864 @@
               </a:solidFill>
             </a:rPr>
             <a:t>dekomprese</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558617</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>29694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>434791</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextovéPole 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5399558" y="2125194"/>
+          <a:ext cx="1086409" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ano</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>138396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28573</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextovéPole 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11649634" y="900396"/>
+          <a:ext cx="1086410" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ano</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600073</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>79001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>316555</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95801</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Obdélník 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13307544" y="460001"/>
+          <a:ext cx="1531835" cy="1540800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="4900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>α</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="4900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1679</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323278</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80114</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Obdélník 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13314267" y="2158814"/>
+          <a:ext cx="1531835" cy="1540800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="4900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>β</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="4900">
+            <a:effectLst/>
+            <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19607</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>341206</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Obdélník 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13332195" y="3902449"/>
+          <a:ext cx="1531835" cy="1540800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="4900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>γ</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="4900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>15127</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>336726</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>93555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Obdélník 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13327715" y="5601255"/>
+          <a:ext cx="1531835" cy="1540800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="4900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>δ</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="4900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>134468</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>600073</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Přímá spojnice 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11026586" y="1230401"/>
+          <a:ext cx="2280958" cy="921128"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19607</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Přímá spojnice 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10847294" y="4672849"/>
+          <a:ext cx="2484901" cy="930092"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>134468</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1679</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71714</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Přímá spojnice 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11026586" y="2162735"/>
+          <a:ext cx="2287681" cy="766479"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>358586</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Přímá spojnice 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10847294" y="5490882"/>
+          <a:ext cx="2823880" cy="885265"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>576546</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>452720</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163044</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextovéPole 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5417487" y="4754094"/>
+          <a:ext cx="1086409" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ne</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157445</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextovéPole 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11654680" y="2463612"/>
+          <a:ext cx="1086409" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ne</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>175374</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>150718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>51547</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>131668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextovéPole 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11672609" y="5865718"/>
+          <a:ext cx="1086409" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ne</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>170328</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>46502</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>81246</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextovéPole 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11667563" y="4291296"/>
+          <a:ext cx="1086410" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ano</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504263</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220745</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Obdélník 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5950322" y="3550022"/>
+          <a:ext cx="1531835" cy="1540800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="4900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>α</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="4900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>410133</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>183782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>126615</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>10082</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Obdélník 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11907368" y="2660282"/>
+          <a:ext cx="1531835" cy="1540800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="4900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>β</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="4900">
+            <a:effectLst/>
+            <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>147916</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>78436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>469516</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Obdélník 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17696328" y="78436"/>
+          <a:ext cx="1531835" cy="1540800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="4900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>γ</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="4900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>143436</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>465036</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>79542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Obdélník 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17691848" y="1777242"/>
+          <a:ext cx="1531835" cy="1540800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="4900" i="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>δ</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="4900">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504263</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129422</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Přímá spojnice 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4269442" y="3451412"/>
+          <a:ext cx="1680880" cy="869010"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>369795</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>410133</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1682</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Přímá spojnice 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10051677" y="2599766"/>
+          <a:ext cx="1855691" cy="830916"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>143436</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71142</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Přímá spojnice 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16024412" y="1703294"/>
+          <a:ext cx="1667436" cy="844348"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>86836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>147916</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Přímá spojnice 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16013206" y="848836"/>
+          <a:ext cx="1683122" cy="854458"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>268380</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3362</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextovéPole 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4628030" y="2117912"/>
+          <a:ext cx="1086409" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ne</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>387723</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>118783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>263897</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99733</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextovéPole 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4623547" y="3928783"/>
+          <a:ext cx="1086409" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ano</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>118783</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextovéPole 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10405783" y="1172135"/>
+          <a:ext cx="1086409" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ne</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>159124</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>35298</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>173692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextovéPole 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10446124" y="3050242"/>
+          <a:ext cx="1086409" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ano</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>24654</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>505945</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextovéPole 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16362830" y="461684"/>
+          <a:ext cx="1086409" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ne</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>20171</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>501462</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextovéPole 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16358347" y="2171701"/>
+          <a:ext cx="1086409" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="4000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ano</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14599,7 +22124,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
@@ -14609,4 +22134,42 @@
   <pageSetup paperSize="3" scale="92" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:Z41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="12" scale="74" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="12" scale="60" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/návrhy/obrázky.xlsx
+++ b/návrhy/obrázky.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="hodnota" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,12 @@
     <sheet name="komprese" sheetId="6" r:id="rId6"/>
     <sheet name="binárni strom Z1" sheetId="7" r:id="rId7"/>
     <sheet name="binární strom Z2" sheetId="8" r:id="rId8"/>
+    <sheet name="CJSON strom" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'binárni strom Z1'!$A$1:$Z$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'binární strom Z2'!$A$1:$AF$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'CJSON strom'!$C$5:$V$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">číslo!$A$2:$R$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">hodnota!$A$1:$M$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">komprese!$A$14:$X$22</definedName>
@@ -2665,7 +2667,6 @@
             <a:rPr lang="cs-CZ"/>
             <a:t>?</a:t>
           </a:r>
-          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -2719,7 +2720,6 @@
             <a:rPr lang="cs-CZ"/>
             <a:t>?</a:t>
           </a:r>
-          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -2762,6 +2762,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{5AACB547-8E71-4AD3-9D48-67E7A0A0A499}" type="pres">
       <dgm:prSet presAssocID="{19FF0E3F-7E33-4B27-93DA-242269A13426}" presName="root1" presStyleCnt="0"/>
@@ -2789,10 +2796,24 @@
     <dgm:pt modelId="{B144FB2B-4212-42C1-A5D2-9FB2ED92D324}" type="pres">
       <dgm:prSet presAssocID="{C0A9E27D-F2C7-4528-B84F-FE6ECE9FE6FA}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4B9ACEB6-1BBD-4470-B6AD-CB037415A909}" type="pres">
       <dgm:prSet presAssocID="{C0A9E27D-F2C7-4528-B84F-FE6ECE9FE6FA}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{214B6DFB-95FF-4345-B313-06A8E58D2C88}" type="pres">
       <dgm:prSet presAssocID="{8B1FB79F-ADD1-480A-9ABF-305EDDC5D67C}" presName="root2" presStyleCnt="0"/>
@@ -2820,10 +2841,24 @@
     <dgm:pt modelId="{51A11F62-D734-43E0-B1CD-7B8AC02250C3}" type="pres">
       <dgm:prSet presAssocID="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{AAF5EBC4-AA59-4303-BEEE-5611156F72A0}" type="pres">
       <dgm:prSet presAssocID="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0E2E070B-62F5-42D9-85CB-89B72D63AC5C}" type="pres">
       <dgm:prSet presAssocID="{F729CCBA-BA02-460F-B5C3-EC439C10F9FA}" presName="root2" presStyleCnt="0"/>
@@ -2850,17 +2885,17 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{07294F62-AB35-463D-BA34-7CDC0F03FBCA}" type="presOf" srcId="{C0A9E27D-F2C7-4528-B84F-FE6ECE9FE6FA}" destId="{4B9ACEB6-1BBD-4470-B6AD-CB037415A909}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{11E425A5-30DC-4550-9B52-9B7AF843962A}" srcId="{DDEF5871-4F25-42FE-9CE8-F056F00558E4}" destId="{19FF0E3F-7E33-4B27-93DA-242269A13426}" srcOrd="0" destOrd="0" parTransId="{47B27231-0C65-4D0C-A1E5-2E845AC22F3A}" sibTransId="{E19D0F34-44D5-4987-8D06-CB880B16C932}"/>
+    <dgm:cxn modelId="{243E030E-428D-43BE-944A-87CC770FC8C2}" type="presOf" srcId="{C0A9E27D-F2C7-4528-B84F-FE6ECE9FE6FA}" destId="{B144FB2B-4212-42C1-A5D2-9FB2ED92D324}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E16D3596-609E-4CD6-BA22-FB6FA10E51DC}" type="presOf" srcId="{F729CCBA-BA02-460F-B5C3-EC439C10F9FA}" destId="{A24B5960-4C0A-401B-9BE5-58D0BC16BE76}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{07294F62-AB35-463D-BA34-7CDC0F03FBCA}" type="presOf" srcId="{C0A9E27D-F2C7-4528-B84F-FE6ECE9FE6FA}" destId="{4B9ACEB6-1BBD-4470-B6AD-CB037415A909}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{165E3CC0-851B-49A2-AFF3-52F1F6C194A7}" srcId="{19FF0E3F-7E33-4B27-93DA-242269A13426}" destId="{8B1FB79F-ADD1-480A-9ABF-305EDDC5D67C}" srcOrd="0" destOrd="0" parTransId="{C0A9E27D-F2C7-4528-B84F-FE6ECE9FE6FA}" sibTransId="{15A61C03-3C7E-46EE-9BB0-B7F2434D777A}"/>
+    <dgm:cxn modelId="{E89B8B7A-67F7-4C1E-8B0E-FDB6B69B6085}" type="presOf" srcId="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" destId="{51A11F62-D734-43E0-B1CD-7B8AC02250C3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{41F796F7-77E9-4C7B-8498-03BAF3E12B78}" type="presOf" srcId="{8B1FB79F-ADD1-480A-9ABF-305EDDC5D67C}" destId="{BF65CDAB-FA01-487D-A059-1FAB1F3ABBCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{59428C4C-7C2E-4778-B50F-BC4329F1C29A}" type="presOf" srcId="{19FF0E3F-7E33-4B27-93DA-242269A13426}" destId="{B053045D-01DC-4505-AE2A-971AC5C9B856}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FC9F1BB8-0C0C-4EDD-AAA6-B764308825BA}" type="presOf" srcId="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" destId="{AAF5EBC4-AA59-4303-BEEE-5611156F72A0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F5CFFEDC-14C8-4260-86AF-278B43CF0645}" srcId="{19FF0E3F-7E33-4B27-93DA-242269A13426}" destId="{F729CCBA-BA02-460F-B5C3-EC439C10F9FA}" srcOrd="1" destOrd="0" parTransId="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" sibTransId="{897141A6-C8F4-4C6C-82E0-41E912657F69}"/>
     <dgm:cxn modelId="{3F42518F-5181-4A58-9F02-01C4B744B1E5}" type="presOf" srcId="{DDEF5871-4F25-42FE-9CE8-F056F00558E4}" destId="{AC27CDF4-73C4-4AE2-A52C-D6F90277EF34}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E89B8B7A-67F7-4C1E-8B0E-FDB6B69B6085}" type="presOf" srcId="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" destId="{51A11F62-D734-43E0-B1CD-7B8AC02250C3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{11E425A5-30DC-4550-9B52-9B7AF843962A}" srcId="{DDEF5871-4F25-42FE-9CE8-F056F00558E4}" destId="{19FF0E3F-7E33-4B27-93DA-242269A13426}" srcOrd="0" destOrd="0" parTransId="{47B27231-0C65-4D0C-A1E5-2E845AC22F3A}" sibTransId="{E19D0F34-44D5-4987-8D06-CB880B16C932}"/>
-    <dgm:cxn modelId="{FC9F1BB8-0C0C-4EDD-AAA6-B764308825BA}" type="presOf" srcId="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" destId="{AAF5EBC4-AA59-4303-BEEE-5611156F72A0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{59428C4C-7C2E-4778-B50F-BC4329F1C29A}" type="presOf" srcId="{19FF0E3F-7E33-4B27-93DA-242269A13426}" destId="{B053045D-01DC-4505-AE2A-971AC5C9B856}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{F5CFFEDC-14C8-4260-86AF-278B43CF0645}" srcId="{19FF0E3F-7E33-4B27-93DA-242269A13426}" destId="{F729CCBA-BA02-460F-B5C3-EC439C10F9FA}" srcOrd="1" destOrd="0" parTransId="{D1EED261-CBA6-47A5-9DF5-EC0428997BD6}" sibTransId="{897141A6-C8F4-4C6C-82E0-41E912657F69}"/>
-    <dgm:cxn modelId="{243E030E-428D-43BE-944A-87CC770FC8C2}" type="presOf" srcId="{C0A9E27D-F2C7-4528-B84F-FE6ECE9FE6FA}" destId="{B144FB2B-4212-42C1-A5D2-9FB2ED92D324}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{BF4C31C3-54F9-43E6-9663-17278AF24868}" type="presParOf" srcId="{AC27CDF4-73C4-4AE2-A52C-D6F90277EF34}" destId="{5AACB547-8E71-4AD3-9D48-67E7A0A0A499}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{B08F8C36-AFA8-4479-A816-17E97E754269}" type="presParOf" srcId="{5AACB547-8E71-4AD3-9D48-67E7A0A0A499}" destId="{B053045D-01DC-4505-AE2A-971AC5C9B856}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{FF2ADB41-8E6C-4406-B663-506B47C760EF}" type="presParOf" srcId="{5AACB547-8E71-4AD3-9D48-67E7A0A0A499}" destId="{EC7E351D-1D40-418D-ADE4-7922FD2C640B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -3047,6 +3082,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{99664041-6924-4B9E-9020-A5D5D0509985}" type="pres">
       <dgm:prSet presAssocID="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" presName="root1" presStyleCnt="0"/>
@@ -3059,6 +3101,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B466F69B-163E-4A45-A5EE-6E3040A99E50}" type="pres">
       <dgm:prSet presAssocID="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" presName="level2hierChild" presStyleCnt="0"/>
@@ -3067,10 +3116,24 @@
     <dgm:pt modelId="{4F17FCF2-0236-4B37-8EB9-F1136671CA5C}" type="pres">
       <dgm:prSet presAssocID="{A596AFF5-5604-4512-BCAA-4B5DD413741D}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EF22E825-CAB7-4769-A1B0-5DE516B87371}" type="pres">
       <dgm:prSet presAssocID="{A596AFF5-5604-4512-BCAA-4B5DD413741D}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D48E45AD-737A-4F94-8926-5A5BAA9A9D6A}" type="pres">
       <dgm:prSet presAssocID="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" presName="root2" presStyleCnt="0"/>
@@ -3083,6 +3146,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3644D3A1-3F33-444A-8368-1F206082E7EE}" type="pres">
       <dgm:prSet presAssocID="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" presName="level3hierChild" presStyleCnt="0"/>
@@ -3091,10 +3161,24 @@
     <dgm:pt modelId="{D536350D-3739-47B7-A20D-545F54F21BCC}" type="pres">
       <dgm:prSet presAssocID="{0E3F9E55-0DC8-4696-A008-D90B02825E4E}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{CF9A7693-EF1C-41D5-A0FF-B381BE1275EA}" type="pres">
       <dgm:prSet presAssocID="{0E3F9E55-0DC8-4696-A008-D90B02825E4E}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="1"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6272736A-4058-445E-8C8F-66567E4475D6}" type="pres">
       <dgm:prSet presAssocID="{10F5901D-81E2-4DBE-B8CA-EED03701240D}" presName="root2" presStyleCnt="0"/>
@@ -3121,17 +3205,17 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{84E4B1F5-5340-4952-9D13-D1E00885C44D}" type="presOf" srcId="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" destId="{EE2A5628-33E4-4DFD-AB84-B3D9643EAB44}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6E6DCF88-C71D-45F0-9083-FD1520151911}" srcId="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" destId="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" srcOrd="0" destOrd="0" parTransId="{A596AFF5-5604-4512-BCAA-4B5DD413741D}" sibTransId="{7DA005F0-5559-496B-A9DC-7002A3312C7D}"/>
     <dgm:cxn modelId="{898C0048-0A1E-457E-BE51-5FDF2073854F}" type="presOf" srcId="{0E3F9E55-0DC8-4696-A008-D90B02825E4E}" destId="{D536350D-3739-47B7-A20D-545F54F21BCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{50A621E3-6808-4B14-A88D-50C1464654C8}" srcId="{2D860989-9D4D-4845-B555-6DE0FCA6D950}" destId="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" srcOrd="0" destOrd="0" parTransId="{2B9FFDE1-991F-405A-84A1-643424D5A939}" sibTransId="{92884F08-ACE1-49A0-9B0C-02C6553D3B10}"/>
     <dgm:cxn modelId="{708B290B-3D43-4B7C-9288-70753F61A38A}" type="presOf" srcId="{A596AFF5-5604-4512-BCAA-4B5DD413741D}" destId="{EF22E825-CAB7-4769-A1B0-5DE516B87371}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0AA47C26-8F8C-4DAC-8B2D-9FBB0B1C8EB4}" type="presOf" srcId="{10F5901D-81E2-4DBE-B8CA-EED03701240D}" destId="{88CD22FD-A637-4FC1-8389-2AE1EE70B3B0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{63E33C75-2CC5-40AE-94C1-7A7C562E3869}" type="presOf" srcId="{A596AFF5-5604-4512-BCAA-4B5DD413741D}" destId="{4F17FCF2-0236-4B37-8EB9-F1136671CA5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B9CE8234-90E0-4431-AE1F-858A330A2FC9}" type="presOf" srcId="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" destId="{02753F6E-481D-4925-B0E1-E001B3B47707}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7528D321-F26A-467D-BB6A-5330F2EE263D}" srcId="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" destId="{10F5901D-81E2-4DBE-B8CA-EED03701240D}" srcOrd="0" destOrd="0" parTransId="{0E3F9E55-0DC8-4696-A008-D90B02825E4E}" sibTransId="{EFE44010-530B-4DCC-B76C-BDCF97E6FF03}"/>
     <dgm:cxn modelId="{7A7AA1CC-630F-4B82-B9CF-6EBC1B9037CE}" type="presOf" srcId="{2D860989-9D4D-4845-B555-6DE0FCA6D950}" destId="{1A554268-0B44-45EF-89E5-2E93B0811DDE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{6E6DCF88-C71D-45F0-9083-FD1520151911}" srcId="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" destId="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" srcOrd="0" destOrd="0" parTransId="{A596AFF5-5604-4512-BCAA-4B5DD413741D}" sibTransId="{7DA005F0-5559-496B-A9DC-7002A3312C7D}"/>
-    <dgm:cxn modelId="{7528D321-F26A-467D-BB6A-5330F2EE263D}" srcId="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" destId="{10F5901D-81E2-4DBE-B8CA-EED03701240D}" srcOrd="0" destOrd="0" parTransId="{0E3F9E55-0DC8-4696-A008-D90B02825E4E}" sibTransId="{EFE44010-530B-4DCC-B76C-BDCF97E6FF03}"/>
     <dgm:cxn modelId="{D1995D28-E47B-4B4A-9610-49A7B52A760F}" type="presOf" srcId="{0E3F9E55-0DC8-4696-A008-D90B02825E4E}" destId="{CF9A7693-EF1C-41D5-A0FF-B381BE1275EA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{63E33C75-2CC5-40AE-94C1-7A7C562E3869}" type="presOf" srcId="{A596AFF5-5604-4512-BCAA-4B5DD413741D}" destId="{4F17FCF2-0236-4B37-8EB9-F1136671CA5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{84E4B1F5-5340-4952-9D13-D1E00885C44D}" type="presOf" srcId="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" destId="{EE2A5628-33E4-4DFD-AB84-B3D9643EAB44}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{50A621E3-6808-4B14-A88D-50C1464654C8}" srcId="{2D860989-9D4D-4845-B555-6DE0FCA6D950}" destId="{4034B69B-38CB-43C0-B33D-F94954A7D14C}" srcOrd="0" destOrd="0" parTransId="{2B9FFDE1-991F-405A-84A1-643424D5A939}" sibTransId="{92884F08-ACE1-49A0-9B0C-02C6553D3B10}"/>
-    <dgm:cxn modelId="{0AA47C26-8F8C-4DAC-8B2D-9FBB0B1C8EB4}" type="presOf" srcId="{10F5901D-81E2-4DBE-B8CA-EED03701240D}" destId="{88CD22FD-A637-4FC1-8389-2AE1EE70B3B0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B9CE8234-90E0-4431-AE1F-858A330A2FC9}" type="presOf" srcId="{7331D9DA-6974-4C91-A780-22CA9911BC9F}" destId="{02753F6E-481D-4925-B0E1-E001B3B47707}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{BB14BC51-4E9E-40E8-8E86-0537C7226D82}" type="presParOf" srcId="{1A554268-0B44-45EF-89E5-2E93B0811DDE}" destId="{99664041-6924-4B9E-9020-A5D5D0509985}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{9DF0D9CF-854C-4563-BB0D-EEE975971B42}" type="presParOf" srcId="{99664041-6924-4B9E-9020-A5D5D0509985}" destId="{EE2A5628-33E4-4DFD-AB84-B3D9643EAB44}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{905F402A-42D0-438C-B15E-435ADEFFC773}" type="presParOf" srcId="{99664041-6924-4B9E-9020-A5D5D0509985}" destId="{B466F69B-163E-4A45-A5EE-6E3040A99E50}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -3164,381 +3248,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{BFEB9D99-D40E-4D13-B587-8941E8CD599A}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="353" y="1142837"/>
-          <a:ext cx="3188444" cy="1348112"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="133350" tIns="133350" rIns="133350" bIns="133350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1555750">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3500" kern="1200"/>
-            <a:t>vstupní data</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="39838" y="1182322"/>
-        <a:ext cx="3109474" cy="1269142"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{C3F8DFA7-14A5-49BC-9407-604807BC23F0}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="4972">
-          <a:off x="3489875" y="1133401"/>
-          <a:ext cx="1800160" cy="1375070"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 60000"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:tint val="60000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="324000" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="l" defTabSz="1244600">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ" sz="2800" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="3489875" y="1408117"/>
-        <a:ext cx="1387639" cy="825042"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{D02B45BE-C1DA-419C-8D74-9FA7D9520F43}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5521143" y="1150821"/>
-          <a:ext cx="3188444" cy="1348112"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="133350" tIns="133350" rIns="133350" bIns="133350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1555750">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3500" kern="1200"/>
-            <a:t>komprimovaná data</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5560628" y="1190306"/>
-        <a:ext cx="3109474" cy="1269142"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{4FF633EA-6EC3-4A74-B932-96D984980708}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="21594813">
-          <a:off x="8891873" y="1133302"/>
-          <a:ext cx="1801893" cy="1375070"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 60000"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:tint val="60000"/>
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="36000" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1244600">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ" sz="2800" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="8891873" y="1408627"/>
-        <a:ext cx="1389372" cy="825042"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{B101A5FB-E04F-4AA7-9D08-2D932DE8CE50}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="10812952" y="1142837"/>
-          <a:ext cx="3188444" cy="1348112"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="133350" tIns="133350" rIns="133350" bIns="133350" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="1555750">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3500" kern="1200"/>
-            <a:t>rekonstruovaná data</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="10852437" y="1182322"/>
-        <a:ext cx="3109474" cy="1269142"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -3558,7 +3267,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="78569" y="2712358"/>
+          <a:off x="141322" y="2712358"/>
           <a:ext cx="4393838" cy="1585682"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3645,7 +3354,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="125012" y="2758801"/>
+        <a:off x="187765" y="2758801"/>
         <a:ext cx="4300952" cy="1492796"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3656,7 +3365,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="19473257">
-          <a:off x="4202558" y="2570814"/>
+          <a:off x="4265311" y="2570814"/>
           <a:ext cx="2912017" cy="180000"/>
         </a:xfrm>
         <a:custGeom>
@@ -3719,7 +3428,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5585766" y="2588014"/>
+        <a:off x="5648519" y="2588014"/>
         <a:ext cx="145600" cy="145600"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3730,7 +3439,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6844726" y="1023588"/>
+          <a:off x="6907479" y="1023588"/>
           <a:ext cx="4269614" cy="1585682"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3803,11 +3512,10 @@
             <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
             <a:t>?</a:t>
           </a:r>
-          <a:endParaRPr lang="cs-CZ" sz="5100" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6891169" y="1070031"/>
+        <a:off x="6953922" y="1070031"/>
         <a:ext cx="4176728" cy="1492796"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3818,7 +3526,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="2160812">
-          <a:off x="4196116" y="4265193"/>
+          <a:off x="4258869" y="4265193"/>
           <a:ext cx="2891250" cy="180000"/>
         </a:xfrm>
         <a:custGeom>
@@ -3881,7 +3589,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5569460" y="4282912"/>
+        <a:off x="5632213" y="4282912"/>
         <a:ext cx="144562" cy="144562"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -3892,7 +3600,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6811076" y="4412345"/>
+          <a:off x="6873829" y="4412345"/>
           <a:ext cx="4269614" cy="1585682"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3968,11 +3676,10 @@
             <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
             <a:t>?</a:t>
           </a:r>
-          <a:endParaRPr lang="cs-CZ" sz="5100" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6857519" y="4458788"/>
+        <a:off x="6920272" y="4458788"/>
         <a:ext cx="4176728" cy="1492796"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -21119,14 +20826,15 @@
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>γ</a:t>
+            <a:t>δ</a:t>
           </a:r>
           <a:endParaRPr lang="cs-CZ" sz="4900">
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -21203,11 +20911,11 @@
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>δ</a:t>
+            <a:t>γ</a:t>
           </a:r>
           <a:endParaRPr lang="cs-CZ" sz="4900">
             <a:effectLst/>
@@ -21776,6 +21484,5576 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>515537</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1859</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85179</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Volný tvar 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7171831" y="4870673"/>
+          <a:ext cx="91440" cy="548506"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="45720" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="45720" y="548506"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="80000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>246596</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>164197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>64492</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>188051</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="61" name="Skupina 60"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6297772" y="926197"/>
+          <a:ext cx="7684426" cy="5548354"/>
+          <a:chOff x="6297772" y="926197"/>
+          <a:chExt cx="7684426" cy="5548354"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="Volný tvar 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7168833" y="3373378"/>
+            <a:ext cx="91440" cy="548506"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="45720" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="45720" y="548506"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="Volný tvar 65"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7168833" y="1875535"/>
+            <a:ext cx="91440" cy="548506"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="45720" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="45720" y="548506"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="Volný tvar 66"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6297772" y="926197"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="Volný tvar 67"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6664485" y="1664571"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX5" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY5" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX6" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY6" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY7" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY8" fmla="*/ 52742 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="52742"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23613"/>
+                  <a:pt x="23613" y="0"/>
+                  <a:pt x="52742" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1597464" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1626593" y="0"/>
+                  <a:pt x="1650206" y="23613"/>
+                  <a:pt x="1650206" y="52742"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="263703"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1650206" y="292832"/>
+                  <a:pt x="1626593" y="316445"/>
+                  <a:pt x="1597464" y="316445"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="52742" y="316445"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="23613" y="316445"/>
+                  <a:pt x="0" y="292832"/>
+                  <a:pt x="0" y="263703"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="52742"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="61168" tIns="26878" rIns="61168" bIns="26878" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="800100">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>prázdný objekt</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="Volný tvar 68"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6297772" y="2424041"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t>souřadniceX</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="Volný tvar 69"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11982653" y="3493486"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="50800" tIns="12700" rIns="50800" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="889000">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ" sz="2000" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="Volný tvar 70"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6297772" y="3921884"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t>souřadniceY</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="Volný tvar 71"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6664485" y="4660258"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX5" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY5" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX6" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY6" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY7" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY8" fmla="*/ 52742 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="52742"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23613"/>
+                  <a:pt x="23613" y="0"/>
+                  <a:pt x="52742" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1597464" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1626593" y="0"/>
+                  <a:pt x="1650206" y="23613"/>
+                  <a:pt x="1650206" y="52742"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="263703"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1650206" y="292832"/>
+                  <a:pt x="1626593" y="316445"/>
+                  <a:pt x="1597464" y="316445"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="52742" y="316445"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="23613" y="316445"/>
+                  <a:pt x="0" y="292832"/>
+                  <a:pt x="0" y="263703"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="52742"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="61168" tIns="26878" rIns="61168" bIns="26878" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="800100">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bod</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="Volný tvar 72"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6300449" y="5419733"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t>poloměr</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="Volný tvar 73"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6667161" y="6158106"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX5" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY5" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX6" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY6" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY7" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY8" fmla="*/ 52742 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="52742"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23613"/>
+                  <a:pt x="23613" y="0"/>
+                  <a:pt x="52742" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1597464" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1626593" y="0"/>
+                  <a:pt x="1650206" y="23613"/>
+                  <a:pt x="1650206" y="52742"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="263703"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1650206" y="292832"/>
+                  <a:pt x="1626593" y="316445"/>
+                  <a:pt x="1597464" y="316445"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="52742" y="316445"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="23613" y="316445"/>
+                  <a:pt x="0" y="292832"/>
+                  <a:pt x="0" y="263703"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="52742"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="61168" tIns="26878" rIns="61168" bIns="26878" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="800100">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>kružnice</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="Volný tvar 75"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12331992" y="6158101"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="50800" tIns="12700" rIns="50800" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="889000">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ" sz="2000" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>163675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160856</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4268</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="Skupina 42"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3794381" y="944125"/>
+          <a:ext cx="5443240" cy="5537143"/>
+          <a:chOff x="3794381" y="944125"/>
+          <a:chExt cx="5443240" cy="5537143"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="Volný tvar 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4665442" y="3391306"/>
+            <a:ext cx="91440" cy="548506"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="45720" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="45720" y="548506"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="Volný tvar 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4665442" y="1893463"/>
+            <a:ext cx="91440" cy="548506"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="45720" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="45720" y="548506"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="Volný tvar 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3794381" y="944125"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="Volný tvar 49"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4161094" y="1682499"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX5" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY5" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX6" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY6" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY7" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY8" fmla="*/ 52742 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="52742"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23613"/>
+                  <a:pt x="23613" y="0"/>
+                  <a:pt x="52742" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1597464" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1626593" y="0"/>
+                  <a:pt x="1650206" y="23613"/>
+                  <a:pt x="1650206" y="52742"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="263703"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1650206" y="292832"/>
+                  <a:pt x="1626593" y="316445"/>
+                  <a:pt x="1597464" y="316445"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="52742" y="316445"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="23613" y="316445"/>
+                  <a:pt x="0" y="292832"/>
+                  <a:pt x="0" y="263703"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="52742"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="61168" tIns="26878" rIns="61168" bIns="26878" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="800100">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>prázdný objekt</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="Volný tvar 50"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3794381" y="2441969"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t>souřadniceX</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="Volný tvar 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7238076" y="3500208"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="50800" tIns="12700" rIns="50800" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="889000">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ" sz="2000" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="Volný tvar 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3794381" y="3939812"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t>souřadniceY</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="Volný tvar 53"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4161094" y="4678186"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX5" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY5" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX6" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY6" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY7" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY8" fmla="*/ 52742 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="52742"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23613"/>
+                  <a:pt x="23613" y="0"/>
+                  <a:pt x="52742" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1597464" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1626593" y="0"/>
+                  <a:pt x="1650206" y="23613"/>
+                  <a:pt x="1650206" y="52742"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="263703"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1650206" y="292832"/>
+                  <a:pt x="1626593" y="316445"/>
+                  <a:pt x="1597464" y="316445"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="52742" y="316445"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="23613" y="316445"/>
+                  <a:pt x="0" y="292832"/>
+                  <a:pt x="0" y="263703"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="52742"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="61168" tIns="26878" rIns="61168" bIns="26878" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="800100">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bod</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="Volný tvar 57"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7587415" y="6164823"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="50800" tIns="12700" rIns="50800" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="889000">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ" sz="2000" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>335661</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10990</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="25" name="Skupina 24"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1324595" y="939641"/>
+          <a:ext cx="3246890" cy="5548349"/>
+          <a:chOff x="1324595" y="939641"/>
+          <a:chExt cx="3246890" cy="5548349"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="Volný tvar 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1324595" y="939641"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="Volný tvar 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1691308" y="1678015"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX5" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY5" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX6" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY6" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY7" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY8" fmla="*/ 52742 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="52742"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23613"/>
+                  <a:pt x="23613" y="0"/>
+                  <a:pt x="52742" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1597464" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1626593" y="0"/>
+                  <a:pt x="1650206" y="23613"/>
+                  <a:pt x="1650206" y="52742"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="263703"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1650206" y="292832"/>
+                  <a:pt x="1626593" y="316445"/>
+                  <a:pt x="1597464" y="316445"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="52742" y="316445"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="23613" y="316445"/>
+                  <a:pt x="0" y="292832"/>
+                  <a:pt x="0" y="263703"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="52742"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="61168" tIns="26878" rIns="61168" bIns="26878" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="800100">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>prázdný objekt</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="Volný tvar 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2571940" y="3506930"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="50800" tIns="12700" rIns="50800" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="889000">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ" sz="2000" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="Volný tvar 39"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2921279" y="6171545"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="50800" tIns="12700" rIns="50800" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="889000">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ" sz="2000" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>345648</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>519460</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>179818</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="Skupina 78"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8817295" y="944125"/>
+          <a:ext cx="9855694" cy="7046193"/>
+          <a:chOff x="8817295" y="944125"/>
+          <a:chExt cx="9855694" cy="7046193"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="Volný tvar 79"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12148299" y="6386993"/>
+            <a:ext cx="91440" cy="548506"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="45720" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="45720" y="548506"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="Volný tvar 80"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10964047" y="4889150"/>
+            <a:ext cx="1229971" cy="548506"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="0" y="326993"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1229971" y="326993"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1229971" y="548506"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="Volný tvar 81"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9734076" y="4889150"/>
+            <a:ext cx="1229971" cy="548506"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="1229971" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1229971" y="326993"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="326993"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="548506"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="Volný tvar 82"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10918327" y="3391306"/>
+            <a:ext cx="91440" cy="548506"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="45720" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="45720" y="548506"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="Volný tvar 83"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10918327" y="1893463"/>
+            <a:ext cx="91440" cy="548506"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="45720" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="45720" y="548506"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="Volný tvar 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10047266" y="944125"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="Volný tvar 85"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10413979" y="1682499"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX5" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY5" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX6" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY6" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY7" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY8" fmla="*/ 52742 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="52742"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23613"/>
+                  <a:pt x="23613" y="0"/>
+                  <a:pt x="52742" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1597464" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1626593" y="0"/>
+                  <a:pt x="1650206" y="23613"/>
+                  <a:pt x="1650206" y="52742"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="263703"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1650206" y="292832"/>
+                  <a:pt x="1626593" y="316445"/>
+                  <a:pt x="1597464" y="316445"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="52742" y="316445"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="23613" y="316445"/>
+                  <a:pt x="0" y="292832"/>
+                  <a:pt x="0" y="263703"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="52742"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="61168" tIns="26878" rIns="61168" bIns="26878" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="800100">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>prázdný objekt</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="Volný tvar 86"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10047266" y="2441969"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t>souřadniceX</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="Volný tvar 87"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16673444" y="3511414"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="50800" tIns="12700" rIns="50800" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="889000">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ" sz="2000" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="Volný tvar 88"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10047266" y="3939812"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t>souřadniceY</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="Volný tvar 89"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10413979" y="4678186"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX5" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY5" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX6" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY6" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY7" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY8" fmla="*/ 52742 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="52742"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23613"/>
+                  <a:pt x="23613" y="0"/>
+                  <a:pt x="52742" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1597464" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1626593" y="0"/>
+                  <a:pt x="1650206" y="23613"/>
+                  <a:pt x="1650206" y="52742"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="263703"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1650206" y="292832"/>
+                  <a:pt x="1626593" y="316445"/>
+                  <a:pt x="1597464" y="316445"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="52742" y="316445"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="23613" y="316445"/>
+                  <a:pt x="0" y="292832"/>
+                  <a:pt x="0" y="263703"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="52742"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="61168" tIns="26878" rIns="61168" bIns="26878" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="800100">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>bod</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="Volný tvar 90"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8817295" y="5437656"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t>poloměr</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="Volný tvar 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9184007" y="6176029"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX5" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY5" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX6" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY6" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY7" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY8" fmla="*/ 52742 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="52742"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23613"/>
+                  <a:pt x="23613" y="0"/>
+                  <a:pt x="52742" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1597464" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1626593" y="0"/>
+                  <a:pt x="1650206" y="23613"/>
+                  <a:pt x="1650206" y="52742"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="263703"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1650206" y="292832"/>
+                  <a:pt x="1626593" y="316445"/>
+                  <a:pt x="1597464" y="316445"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="52742" y="316445"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="23613" y="316445"/>
+                  <a:pt x="0" y="292832"/>
+                  <a:pt x="0" y="263703"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="52742"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="61168" tIns="26878" rIns="61168" bIns="26878" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="800100">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>kružnice</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="Volný tvar 92"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11277238" y="5437656"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t>výška</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="Volný tvar 93"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="17022783" y="6176029"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="316445"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="50800" tIns="12700" rIns="50800" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="889000">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ" sz="2000" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="Volný tvar 94"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11277238" y="6935499"/>
+            <a:ext cx="1833562" cy="949337"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY0" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX1" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX2" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 949337"/>
+              <a:gd name="connsiteX3" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY3" fmla="*/ 158226 h 949337"/>
+              <a:gd name="connsiteX4" fmla="*/ 1833562 w 1833562"/>
+              <a:gd name="connsiteY4" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX5" fmla="*/ 1675336 w 1833562"/>
+              <a:gd name="connsiteY5" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX6" fmla="*/ 158226 w 1833562"/>
+              <a:gd name="connsiteY6" fmla="*/ 949337 h 949337"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY7" fmla="*/ 791111 h 949337"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1833562"/>
+              <a:gd name="connsiteY8" fmla="*/ 158226 h 949337"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1833562" h="949337">
+                <a:moveTo>
+                  <a:pt x="0" y="158226"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="70840"/>
+                  <a:pt x="70840" y="0"/>
+                  <a:pt x="158226" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1675336" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1762722" y="0"/>
+                  <a:pt x="1833562" y="70840"/>
+                  <a:pt x="1833562" y="158226"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1833562" y="791111"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1833562" y="878497"/>
+                  <a:pt x="1762722" y="949337"/>
+                  <a:pt x="1675336" y="949337"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="158226" y="949337"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="70840" y="949337"/>
+                  <a:pt x="0" y="878497"/>
+                  <a:pt x="0" y="791111"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="158226"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="63488" tIns="63488" rIns="63488" bIns="180305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="1200150">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="2700" kern="1200"/>
+              <a:t>šířka</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="Volný tvar 95"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11643950" y="7673873"/>
+            <a:ext cx="1650206" cy="316445"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY0" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX1" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX2" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 316445"/>
+              <a:gd name="connsiteX3" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY3" fmla="*/ 52742 h 316445"/>
+              <a:gd name="connsiteX4" fmla="*/ 1650206 w 1650206"/>
+              <a:gd name="connsiteY4" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX5" fmla="*/ 1597464 w 1650206"/>
+              <a:gd name="connsiteY5" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX6" fmla="*/ 52742 w 1650206"/>
+              <a:gd name="connsiteY6" fmla="*/ 316445 h 316445"/>
+              <a:gd name="connsiteX7" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY7" fmla="*/ 263703 h 316445"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 1650206"/>
+              <a:gd name="connsiteY8" fmla="*/ 52742 h 316445"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1650206" h="316445">
+                <a:moveTo>
+                  <a:pt x="0" y="52742"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23613"/>
+                  <a:pt x="23613" y="0"/>
+                  <a:pt x="52742" y="0"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1597464" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1626593" y="0"/>
+                  <a:pt x="1650206" y="23613"/>
+                  <a:pt x="1650206" y="52742"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="1650206" y="263703"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="1650206" y="292832"/>
+                  <a:pt x="1626593" y="316445"/>
+                  <a:pt x="1597464" y="316445"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="52742" y="316445"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="23613" y="316445"/>
+                  <a:pt x="0" y="292832"/>
+                  <a:pt x="0" y="263703"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="52742"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="lt1">
+              <a:alpha val="90000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="61168" tIns="26878" rIns="61168" bIns="26878" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="1">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="r" defTabSz="800100">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ" sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>obdélník</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
@@ -22143,7 +27421,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T2" sqref="T2:Z41"/>
     </sheetView>
   </sheetViews>
@@ -22163,7 +27441,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22172,4 +27450,23 @@
   <pageSetup paperSize="12" scale="60" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/návrhy/obrázky.xlsx
+++ b/návrhy/obrázky.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="hodnota" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="binárni strom Z1" sheetId="7" r:id="rId7"/>
     <sheet name="binární strom Z2" sheetId="8" r:id="rId8"/>
     <sheet name="CJSON strom" sheetId="9" r:id="rId9"/>
+    <sheet name="Semi huffman" sheetId="10" r:id="rId10"/>
+    <sheet name="Adapt huffman" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'binárni strom Z1'!$A$1:$Z$39</definedName>
@@ -32,6 +34,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">objekt!$A$2:$N$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">pole!$A$3:$M$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">řetězec!$A$1:$P$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Semi huffman'!$A$2:$P$46</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -3260,429 +3263,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{B053045D-01DC-4505-AE2A-971AC5C9B856}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="141322" y="2712358"/>
-          <a:ext cx="4393838" cy="1585682"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32385" tIns="32385" rIns="32385" bIns="32385" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="2266950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
-            <a:t>Je to znak </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200"/>
-            <a:t>α</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
-            <a:t> nebo </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200">
-              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
-            </a:rPr>
-            <a:t>β</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
-            <a:t>?</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="187765" y="2758801"/>
-        <a:ext cx="4300952" cy="1492796"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{B144FB2B-4212-42C1-A5D2-9FB2ED92D324}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="19473257">
-          <a:off x="4265311" y="2570814"/>
-          <a:ext cx="2912017" cy="180000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="90000"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="2912017" y="90000"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ" sz="1000" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5648519" y="2588014"/>
-        <a:ext cx="145600" cy="145600"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{BF65CDAB-FA01-487D-A059-1FAB1F3ABBCC}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6907479" y="1023588"/>
-          <a:ext cx="4269614" cy="1585682"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32385" tIns="32385" rIns="32385" bIns="32385" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="2266950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
-            <a:t>Je to znak </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200"/>
-            <a:t>α</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
-            <a:t>?</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="6953922" y="1070031"/>
-        <a:ext cx="4176728" cy="1492796"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{51A11F62-D734-43E0-B1CD-7B8AC02250C3}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="2160812">
-          <a:off x="4258869" y="4265193"/>
-          <a:ext cx="2891250" cy="180000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="90000"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="2891250" y="90000"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="444500">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ" sz="1000" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5632213" y="4282912"/>
-        <a:ext cx="144562" cy="144562"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{A24B5960-4C0A-401B-9BE5-58D0BC16BE76}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="6873829" y="4412345"/>
-          <a:ext cx="4269614" cy="1585682"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32385" tIns="32385" rIns="32385" bIns="32385" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="2266950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
-            <a:t>Je to znak </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>γ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
-            <a:t>?</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="6920272" y="4458788"/>
-        <a:ext cx="4176728" cy="1492796"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -3695,432 +3275,6 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{EE2A5628-33E4-4DFD-AB84-B3D9643EAB44}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="145632" y="2577301"/>
-          <a:ext cx="4139994" cy="1587612"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32385" tIns="32385" rIns="32385" bIns="32385" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="2266950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
-            <a:t>Je to znak </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200"/>
-            <a:t>α</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
-            <a:t>?</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="192132" y="2623801"/>
-        <a:ext cx="4046994" cy="1494612"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{4F17FCF2-0236-4B37-8EB9-F1136671CA5C}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="19953513">
-          <a:off x="4181648" y="2904895"/>
-          <a:ext cx="1848226" cy="80683"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="40341"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1848226" y="40341"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="266700">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ" sz="600" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5059555" y="2899032"/>
-        <a:ext cx="92411" cy="92411"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{02753F6E-481D-4925-B0E1-E001B3B47707}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="5925895" y="1725561"/>
-          <a:ext cx="4139994" cy="1587612"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32385" tIns="32385" rIns="32385" bIns="32385" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="2266950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
-            <a:t>Je to znak </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200">
-              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>β</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
-            <a:t>?</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="5972395" y="1772061"/>
-        <a:ext cx="4046994" cy="1494612"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{D536350D-3739-47B7-A20D-545F54F21BCC}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm rot="20018521">
-          <a:off x="9960028" y="2026939"/>
-          <a:ext cx="2036524" cy="80683"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path>
-              <a:moveTo>
-                <a:pt x="0" y="40341"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="2036524" y="40341"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:shade val="80000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="311150">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="cs-CZ" sz="700" kern="1200"/>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="10927377" y="2016368"/>
-        <a:ext cx="101826" cy="101826"/>
-      </dsp:txXfrm>
-    </dsp:sp>
-    <dsp:sp modelId="{88CD22FD-A637-4FC1-8389-2AE1EE70B3B0}">
-      <dsp:nvSpPr>
-        <dsp:cNvPr id="0" name=""/>
-        <dsp:cNvSpPr/>
-      </dsp:nvSpPr>
-      <dsp:spPr>
-        <a:xfrm>
-          <a:off x="11890692" y="821388"/>
-          <a:ext cx="4139994" cy="1587612"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 10000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="0"/>
-            <a:satOff val="0"/>
-            <a:lumOff val="0"/>
-            <a:alphaOff val="0"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </dsp:spPr>
-      <dsp:style>
-        <a:lnRef idx="2">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </dsp:style>
-      <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="32385" tIns="32385" rIns="32385" bIns="32385" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="2266950">
-            <a:lnSpc>
-              <a:spcPct val="90000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPct val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPct val="35000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
-            <a:t>Je to znak </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="el-GR" sz="5100" i="1" kern="1200">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>γ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="5100" kern="1200"/>
-            <a:t>?</a:t>
-          </a:r>
-        </a:p>
-      </dsp:txBody>
-      <dsp:txXfrm>
-        <a:off x="11937192" y="867888"/>
-        <a:ext cx="4046994" cy="1494612"/>
-      </dsp:txXfrm>
-    </dsp:sp>
   </dsp:spTree>
 </dsp:drawing>
 </file>
@@ -10094,6 +9248,4325 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>508499</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>172324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextovéPole 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33617" y="7664824"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>I</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29136</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504018</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>167841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextovéPole 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1239371" y="7660341"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>492812</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>167840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextovéPole 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="7660340"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>P</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13448</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>488330</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>163357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextovéPole 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3644154" y="7655857"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>R</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17936</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>492818</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>167840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextovéPole 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4858877" y="7660340"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>M</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13455</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>488337</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>163357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextovéPole 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6064631" y="7655857"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>V</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2248</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>477131</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>163356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextovéPole 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7263660" y="7655856"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>602885</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472649</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextovéPole 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8469414" y="7651373"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>˽</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>474889</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>60259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextovéPole 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7866536" y="5838259"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40345</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>118775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>515228</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>55775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextovéPole 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486404" y="5833775"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>31379</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>188250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>506261</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextovéPole 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6687673" y="3998250"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>24652</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>499534</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>62497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextovéPole 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3050240" y="5840497"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>64989</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>539872</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>58013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextovéPole 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670107" y="5836013"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44820</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>78423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>519703</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15423</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextovéPole 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4280644" y="2173923"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40332</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>141166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>515214</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78166</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextovéPole 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1855685" y="331666"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>573617</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>58013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>604989</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Přímá spojnice 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="573617" y="6916013"/>
+          <a:ext cx="636490" cy="748811"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>604989</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>58013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>569136</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Přímá spojnice 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1210107" y="6916013"/>
+          <a:ext cx="569264" cy="744328"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>557929</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>62497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>564652</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Přímá spojnice 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="26" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2978400" y="6920497"/>
+          <a:ext cx="611840" cy="739843"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>564652</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>62497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>553448</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Přímá spojnice 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="26" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3590240" y="6920497"/>
+          <a:ext cx="593914" cy="735360"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>557936</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>55775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>580345</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Přímá spojnice 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5398877" y="6913775"/>
+          <a:ext cx="627527" cy="746565"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>580345</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>55775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>553455</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Přímá spojnice 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6026404" y="6913775"/>
+          <a:ext cx="578227" cy="742082"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542248</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>60259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>540007</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35856</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Přímá spojnice 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="0"/>
+          <a:endCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7803660" y="6918259"/>
+          <a:ext cx="602876" cy="737597"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>540007</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>60259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537767</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31373</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Přímá spojnice 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="22" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8406536" y="6918259"/>
+          <a:ext cx="602878" cy="733114"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571379</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>540007</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123259</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Přímá spojnice 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="0"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7227673" y="5078250"/>
+          <a:ext cx="1178863" cy="760009"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>580345</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571379</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>118775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Přímá spojnice 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="0"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6026404" y="5078250"/>
+          <a:ext cx="1201269" cy="755525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584820</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571379</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>188250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Přímá spojnice 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="0"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4820644" y="3253923"/>
+          <a:ext cx="2407029" cy="744327"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>580332</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584820</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>78423</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Přímá spojnice 53"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="0"/>
+          <a:endCxn id="30" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2395685" y="1411666"/>
+          <a:ext cx="2424959" cy="762257"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>564652</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584820</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>125497</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Přímá spojnice 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="0"/>
+          <a:endCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3590240" y="3253923"/>
+          <a:ext cx="1230404" cy="2586574"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>604989</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>78166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>580332</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>121013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Přímá spojnice 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="30" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1210107" y="1411666"/>
+          <a:ext cx="1185578" cy="4424347"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="TextovéPole 58"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1411942" y="3137647"/>
+          <a:ext cx="437029" cy="560294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>544605</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>141195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>376516</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="TextovéPole 59"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3570193" y="1284195"/>
+          <a:ext cx="437029" cy="553570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>562536</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>394448</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="TextovéPole 60"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6008595" y="3128682"/>
+          <a:ext cx="437029" cy="546847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>20170</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="TextovéPole 61"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3818965" y="4054288"/>
+          <a:ext cx="437029" cy="551329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>587188</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="TextovéPole 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="5024718"/>
+          <a:ext cx="437029" cy="589429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280146</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextovéPole 63"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="448235" y="6914030"/>
+          <a:ext cx="437029" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>421340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>253252</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="TextovéPole 64"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2841811" y="6920753"/>
+          <a:ext cx="437029" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>439270</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>69476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>271181</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>159123</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="TextovéPole 65"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5280211" y="6927476"/>
+          <a:ext cx="437029" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>378757</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>210669</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>143434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="TextovéPole 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7640169" y="6911787"/>
+          <a:ext cx="437029" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>116540</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>553569</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="TextovéPole 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6167716" y="5013510"/>
+          <a:ext cx="437029" cy="600637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="TextovéPole 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8718177" y="6902824"/>
+          <a:ext cx="437029" cy="526676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>275666</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>186018</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="TextovéPole 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6326842" y="6898342"/>
+          <a:ext cx="437029" cy="526676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="TextovéPole 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3888442" y="6914029"/>
+          <a:ext cx="437029" cy="526676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>275666</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>186017</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="TextovéPole 71"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485901" y="6898341"/>
+          <a:ext cx="437029" cy="526676"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>41775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextovéPole 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724525" y="104775"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>16</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>51</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>122</xdr:col>
+      <xdr:colOff>32250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>60825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextovéPole 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10572750" y="1552575"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>50</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>3675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>70350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextovéPole 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114675" y="1562100"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>49</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>128</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>139</xdr:col>
+      <xdr:colOff>60825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>51300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextovéPole 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12220575" y="3162300"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>I(5)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>58</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>102</xdr:col>
+      <xdr:colOff>70350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>70350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextovéPole 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8705850" y="3181350"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>S(4)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>47</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>89400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextovéPole 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="3133725"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>46</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>60825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextovéPole 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="3171825"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>45</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>13200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>79875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextovéPole 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="4714875"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>R(2)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>42</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22725</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>3675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextovéPole 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="4733925"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>P(1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>41</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>3675</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>60825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextovéPole 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="4695825"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>44</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>89400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>79875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextovéPole 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="4714875"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>43</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>22725</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>79875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextovéPole 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848225" y="6238875"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>V(1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>38</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>32250</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>3675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextovéPole 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="6257925"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>37</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>13200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>60825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextovéPole 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="6219825"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>˽(1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>40</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>79875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextovéPole 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="6238875"/>
+          <a:ext cx="1085850" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>M(1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>39</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>79875</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>41775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextovéPole 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3952875" y="7724775"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>E(1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>36</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>89400</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>60825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextovéPole 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="7743825"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>NYT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>35</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>35175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>73275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Přímá spojnice 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3654675" y="1184775"/>
+          <a:ext cx="2609850" cy="377325"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>73275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>63750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Přímá spojnice 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6264525" y="1184775"/>
+          <a:ext cx="4848225" cy="367800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>92325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>70350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>35175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Přímá spojnice 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1997325" y="2642100"/>
+          <a:ext cx="1657350" cy="529725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>35175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>70350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>25650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Přímá spojnice 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3654675" y="2642100"/>
+          <a:ext cx="2752725" cy="491625"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>6600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>60825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>63750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Přímá spojnice 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9245850" y="2632575"/>
+          <a:ext cx="1866900" cy="548775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>116</xdr:col>
+      <xdr:colOff>63750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>60825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>133</xdr:col>
+      <xdr:colOff>92325</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Přímá spojnice 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="0"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11112750" y="2632575"/>
+          <a:ext cx="1647825" cy="529725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54225</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>92325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Přímá spojnice 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1197225" y="4251825"/>
+          <a:ext cx="800100" cy="482100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>92325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>44700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Přímá spojnice 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1997325" y="4251825"/>
+          <a:ext cx="904875" cy="463050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>25650</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>25650</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Přímá spojnice 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="0"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4502400" y="4213725"/>
+          <a:ext cx="1905000" cy="501150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>25650</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>35175</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Přímá spojnice 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6407400" y="4213725"/>
+          <a:ext cx="1533525" cy="482100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>63750</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>79875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>25650</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Přímá spojnice 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3683250" y="5794875"/>
+          <a:ext cx="819150" cy="463050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>25650</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>79875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>54225</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Přímá spojnice 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4502400" y="5794875"/>
+          <a:ext cx="885825" cy="444000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>60825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>35175</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Přímá spojnice 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="0"/>
+          <a:endCxn id="12" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7200900" y="5775825"/>
+          <a:ext cx="740025" cy="463050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>35175</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>60825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>44700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Přímá spojnice 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7940925" y="5775825"/>
+          <a:ext cx="962025" cy="444000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>25650</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>3675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>63750</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Přímá spojnice 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2787900" y="7337925"/>
+          <a:ext cx="895350" cy="405900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>63750</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>3675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>16125</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Přímá spojnice 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3683250" y="7337925"/>
+          <a:ext cx="809625" cy="386850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -27331,6 +30804,244 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="DF61" sqref="DF61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="142" width="1.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -27459,7 +31170,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>

--- a/návrhy/obrázky.xlsx
+++ b/návrhy/obrázky.xlsx
@@ -25,6 +25,7 @@
     <sheet name="Adapt huffman" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'Adapt huffman'!$X$1:$BV$93</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'binárni strom Z1'!$A$1:$Z$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'binární strom Z2'!$A$1:$AF$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'CJSON strom'!$C$5:$V$42</definedName>
@@ -34,7 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">objekt!$A$2:$N$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">pole!$A$3:$M$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">řetězec!$A$1:$P$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'Semi huffman'!$A$2:$P$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'Semi huffman'!$A$12:$H$46</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -9313,7 +9314,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>5</a:t>
+            <a:t>4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9501,71 +9502,6 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>R</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>17936</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>40340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>492818</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>167840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextovéPole 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4858877" y="7660340"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
             <a:t>M</a:t>
           </a:r>
         </a:p>
@@ -9574,375 +9510,6 @@
           <a:r>
             <a:rPr lang="cs-CZ" sz="2000"/>
             <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>13455</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>35857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>488337</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>163357</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextovéPole 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6064631" y="7655857"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>V</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2248</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>35856</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>477131</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>163356</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextovéPole 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7263660" y="7655856"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>E</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>602885</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>31373</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>472649</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>158873</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextovéPole 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8469414" y="7651373"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>˽</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>7</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123259</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>474889</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>60259</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="TextovéPole 21"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7866536" y="5838259"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>40345</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>118775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>515228</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>55775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="TextovéPole 22"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486404" y="5833775"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>31379</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>188250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>506261</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>125250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextovéPole 24"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6687673" y="3998250"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10000,7 +9567,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>4</a:t>
+            <a:t>3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10009,25 +9576,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>64989</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>121013</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22409</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>539872</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>58013</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>497292</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="TextovéPole 26"/>
+        <xdr:cNvPr id="29" name="TextovéPole 28"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670107" y="5836013"/>
+          <a:off x="2442880" y="4034100"/>
           <a:ext cx="1080000" cy="1080000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10058,7 +9625,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>9</a:t>
+            <a:t>7</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10067,25 +9634,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>44820</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29127</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>78423</xdr:rowOff>
+      <xdr:rowOff>129961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>519703</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504009</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>15423</xdr:rowOff>
+      <xdr:rowOff>66961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="TextovéPole 28"/>
+        <xdr:cNvPr id="30" name="TextovéPole 29"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4280644" y="2173923"/>
+          <a:off x="1239362" y="2225461"/>
           <a:ext cx="1080000" cy="1080000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10116,7 +9683,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>8</a:t>
+            <a:t>11</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10125,72 +9692,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>40332</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>141166</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>515214</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>78166</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="TextovéPole 29"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1855685" y="331666"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>17</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>573617</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>58013</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>604989</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>569127</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
@@ -10199,13 +9708,13 @@
         <xdr:cNvPr id="32" name="Přímá spojnice 31"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="0"/>
-          <a:endCxn id="27" idx="2"/>
+          <a:endCxn id="30" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="573617" y="6916013"/>
-          <a:ext cx="636490" cy="748811"/>
+          <a:off x="573617" y="3305461"/>
+          <a:ext cx="1205745" cy="4359363"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10230,14 +9739,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>604989</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>58013</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>569136</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>562409</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>40341</xdr:rowOff>
     </xdr:to>
@@ -10246,13 +9755,13 @@
         <xdr:cNvPr id="34" name="Přímá spojnice 33"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="0"/>
-          <a:endCxn id="27" idx="2"/>
+          <a:endCxn id="29" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1210107" y="6916013"/>
-          <a:ext cx="569264" cy="744328"/>
+        <a:xfrm flipV="1">
+          <a:off x="1779371" y="5114100"/>
+          <a:ext cx="1203509" cy="2546241"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10371,345 +9880,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>557936</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>55775</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>569127</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>580345</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>40340</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Přímá spojnice 39"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="0"/>
-          <a:endCxn id="23" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5398877" y="6913775"/>
-          <a:ext cx="627527" cy="746565"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>580345</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>55775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>553455</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>35857</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Přímá spojnice 41"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="0"/>
-          <a:endCxn id="23" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6026404" y="6913775"/>
-          <a:ext cx="578227" cy="742082"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542248</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>60259</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>540007</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>35856</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Přímá spojnice 43"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="0"/>
-          <a:endCxn id="22" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7803660" y="6918259"/>
-          <a:ext cx="602876" cy="737597"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>540007</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>60259</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>537767</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>31373</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Přímá spojnice 45"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="0"/>
-          <a:endCxn id="22" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8406536" y="6918259"/>
-          <a:ext cx="602878" cy="733114"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571379</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>125250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>540007</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123259</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Přímá spojnice 47"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="0"/>
-          <a:endCxn id="25" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7227673" y="5078250"/>
-          <a:ext cx="1178863" cy="760009"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>580345</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>125250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571379</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>118775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Přímá spojnice 49"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="23" idx="0"/>
-          <a:endCxn id="25" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6026404" y="5078250"/>
-          <a:ext cx="1201269" cy="755525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>584820</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15423</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571379</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>188250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Přímá spojnice 51"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="25" idx="0"/>
-          <a:endCxn id="29" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4820644" y="3253923"/>
-          <a:ext cx="2407029" cy="744327"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>580332</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>78166</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>584820</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>78423</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>562409</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10721,8 +9901,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2395685" y="1411666"/>
-          <a:ext cx="2424959" cy="762257"/>
+          <a:off x="1779362" y="3305461"/>
+          <a:ext cx="1203518" cy="728639"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10747,14 +9927,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>562409</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>564652</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15423</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>584820</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>125497</xdr:rowOff>
     </xdr:to>
@@ -10767,9 +9947,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3590240" y="3253923"/>
-          <a:ext cx="1230404" cy="2586574"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2982880" y="5114100"/>
+          <a:ext cx="607360" cy="726397"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10794,63 +9974,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>604989</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>78166</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>580332</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>121013</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Přímá spojnice 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="27" idx="0"/>
-          <a:endCxn id="30" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1210107" y="1411666"/>
-          <a:ext cx="1185578" cy="4424347"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>201707</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10859,7 +9992,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1411942" y="3137647"/>
+          <a:off x="2409265" y="3204882"/>
           <a:ext cx="437029" cy="560294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10903,16 +10036,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>544605</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>141195</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219633</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>376516</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>51545</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10921,7 +10054,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3570193" y="1284195"/>
+          <a:off x="824751" y="4937312"/>
           <a:ext cx="437029" cy="553570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10965,78 +10098,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>562536</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367555</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>177053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>394448</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="TextovéPole 60"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6008595" y="3128682"/>
-          <a:ext cx="437029" cy="546847"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>0</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>188259</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>20170</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:colOff>199466</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11045,7 +10116,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3818965" y="4054288"/>
+          <a:off x="3393143" y="5130053"/>
           <a:ext cx="437029" cy="551329"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11089,26 +10160,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>587188</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71718</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>421340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>253252</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="TextovéPole 62"/>
+        <xdr:cNvPr id="65" name="TextovéPole 64"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7848600" y="5024718"/>
-          <a:ext cx="437029" cy="589429"/>
+          <a:off x="2841811" y="6920753"/>
+          <a:ext cx="437029" cy="553571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11151,26 +10222,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>324972</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>280146</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="TextovéPole 63"/>
+        <xdr:cNvPr id="71" name="TextovéPole 70"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="448235" y="6914030"/>
-          <a:ext cx="437029" cy="470647"/>
+          <a:off x="3955678" y="6914029"/>
+          <a:ext cx="437029" cy="526676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11213,273 +10284,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219636</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>421340</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>253252</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>51547</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="TextovéPole 64"/>
+        <xdr:cNvPr id="72" name="TextovéPole 71"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2841811" y="6920753"/>
-          <a:ext cx="437029" cy="470647"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>439270</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>69476</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>271181</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>159123</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="TextovéPole 65"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5280211" y="6927476"/>
-          <a:ext cx="437029" cy="470647"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>378757</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>53787</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>210669</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>143434</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="TextovéPole 66"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7640169" y="6911787"/>
-          <a:ext cx="437029" cy="470647"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>116540</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>60510</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>553569</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="TextovéPole 67"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6167716" y="5013510"/>
-          <a:ext cx="437029" cy="600637"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="TextovéPole 68"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8718177" y="6902824"/>
+          <a:off x="2034989" y="5912224"/>
           <a:ext cx="437029" cy="526676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11521,28 +10344,994 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>275666</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>40342</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>186018</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>60825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="TextovéPole 69"/>
+        <xdr:cNvPr id="4" name="TextovéPole 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6326842" y="6898342"/>
-          <a:ext cx="437029" cy="526676"/>
+          <a:off x="4124325" y="0"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>51</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>22725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextovéPole 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="1876425"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>50</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>70350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextovéPole 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="1876425"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>S(4)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>49</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>79875</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>32250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextovéPole 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="3810000"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>I(4)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>48</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>51300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>32250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextovéPole 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="3810000"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>47</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>13200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>3675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextovéPole 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="5781675"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>P(2)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>46</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>70350</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>3675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextovéPole 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="5781675"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>45</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>41775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextovéPole 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4105275" y="7724775"/>
+          <a:ext cx="1104900" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>M(1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>44</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>3675</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>41775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextovéPole 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="7724775"/>
+          <a:ext cx="1080000" cy="1080000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>NYT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000"/>
+            <a:t>35</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>6600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>92325</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Přímá spojnice 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3721350" y="1080000"/>
+          <a:ext cx="942975" cy="796425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>92325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>54225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Přímá spojnice 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4664325" y="1080000"/>
+          <a:ext cx="914400" cy="796425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>82800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>54225</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Přímá spojnice 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="0"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4654800" y="2956425"/>
+          <a:ext cx="923925" cy="853575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>54225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>16125</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Přímá spojnice 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5578725" y="2956425"/>
+          <a:ext cx="914400" cy="853575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>6600</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>32250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>82800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Přímá spojnice 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3721350" y="4890000"/>
+          <a:ext cx="933450" cy="891675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>82800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>32250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>44700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Přímá spojnice 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4654800" y="4890000"/>
+          <a:ext cx="914400" cy="891675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>35175</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>3675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>6600</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Přímá spojnice 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2797425" y="6861675"/>
+          <a:ext cx="923925" cy="863100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>6600</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>3675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Přímá spojnice 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3721350" y="6861675"/>
+          <a:ext cx="936375" cy="863100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>75079</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextovéPole 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="1028700"/>
+          <a:ext cx="437029" cy="553570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11585,26 +11374,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257736</xdr:colOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>75079</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:rowOff>39220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="TextovéPole 70"/>
+        <xdr:cNvPr id="43" name="TextovéPole 42"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3888442" y="6914029"/>
-          <a:ext cx="437029" cy="526676"/>
+          <a:off x="4781550" y="2914650"/>
+          <a:ext cx="437029" cy="553570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11647,26 +11436,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>275666</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>40341</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>107577</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>186017</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>27454</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>29695</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="TextovéPole 71"/>
+        <xdr:cNvPr id="45" name="TextovéPole 44"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485901" y="6898341"/>
-          <a:ext cx="437029" cy="526676"/>
+          <a:off x="3781425" y="4905375"/>
+          <a:ext cx="437029" cy="553570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11707,70 +11496,62 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>41775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>41775</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>77320</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextovéPole 1"/>
+        <xdr:cNvPr id="47" name="TextovéPole 46"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5724525" y="104775"/>
-          <a:ext cx="1080000" cy="1080000"/>
+          <a:off x="2857500" y="6858000"/>
+          <a:ext cx="437029" cy="553570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>16</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>51</a:t>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11779,63 +11560,60 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>111</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>75079</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>122</xdr:col>
-      <xdr:colOff>32250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>60825</xdr:rowOff>
+      <xdr:rowOff>58270</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextovéPole 2"/>
+        <xdr:cNvPr id="49" name="TextovéPole 48"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10572750" y="1552575"/>
-          <a:ext cx="1080000" cy="1080000"/>
+          <a:off x="5162550" y="1028700"/>
+          <a:ext cx="437029" cy="553570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>9</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>50</a:t>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11844,63 +11622,60 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>3675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>70350</xdr:rowOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>36979</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>39220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextovéPole 3"/>
+        <xdr:cNvPr id="50" name="TextovéPole 49"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3114675" y="1562100"/>
-          <a:ext cx="1080000" cy="1080000"/>
+          <a:off x="6076950" y="2914650"/>
+          <a:ext cx="437029" cy="553570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>7</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>49</a:t>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11909,63 +11684,60 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>128</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>139</xdr:col>
-      <xdr:colOff>60825</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>51300</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>8404</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>39220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextovéPole 5"/>
+        <xdr:cNvPr id="52" name="TextovéPole 51"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12220575" y="3162300"/>
-          <a:ext cx="1080000" cy="1080000"/>
+          <a:off x="5191125" y="4914900"/>
+          <a:ext cx="437029" cy="553570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>I(5)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>58</a:t>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11974,1599 +11746,64 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>91</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>102</xdr:col>
-      <xdr:colOff>70350</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>70350</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>94129</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>67795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextovéPole 6"/>
+        <xdr:cNvPr id="54" name="TextovéPole 53"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8705850" y="3181350"/>
-          <a:ext cx="1080000" cy="1080000"/>
+          <a:off x="4229100" y="6848475"/>
+          <a:ext cx="437029" cy="553570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>S(4)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>47</a:t>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>89400</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>22725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextovéPole 7"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5867400" y="3133725"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>4</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>46</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>60825</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>60825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextovéPole 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1457325" y="3171825"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>45</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>13200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>79875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextovéPole 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2362200" y="4714875"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>R(2)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>42</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>22725</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>3675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextovéPole 10"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="657225" y="4733925"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>P(1)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>41</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>89</xdr:col>
-      <xdr:colOff>3675</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>60825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextovéPole 11"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7400925" y="4695825"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>44</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>89400</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>79875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextovéPole 12"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3962400" y="4714875"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>43</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>22725</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>79875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextovéPole 13"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4848225" y="6238875"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>V(1)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>38</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>32250</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>3675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextovéPole 14"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3143250" y="6257925"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>37</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>99</xdr:col>
-      <xdr:colOff>13200</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>60825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextovéPole 15"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8362950" y="6219825"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>˽(1)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>40</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>79875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextovéPole 16"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6657975" y="6238875"/>
-          <a:ext cx="1085850" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>M(1)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>39</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>79875</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>41775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="TextovéPole 17"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3952875" y="7724775"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>E(1)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>36</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>89400</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>60825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextovéPole 18"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2247900" y="7743825"/>
-          <a:ext cx="1080000" cy="1080000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
-            <a:t>NYT</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="cs-CZ" sz="2000"/>
-            <a:t>35</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>35175</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>41775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>73275</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Přímá spojnice 20"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="0"/>
-          <a:endCxn id="2" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3654675" y="1184775"/>
-          <a:ext cx="2609850" cy="377325"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>73275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>41775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>116</xdr:col>
-      <xdr:colOff>63750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Přímá spojnice 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6264525" y="1184775"/>
-          <a:ext cx="4848225" cy="367800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>92325</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>70350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>35175</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Přímá spojnice 24"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1997325" y="2642100"/>
-          <a:ext cx="1657350" cy="529725"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>35175</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>70350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>25650</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Přímá spojnice 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3654675" y="2642100"/>
-          <a:ext cx="2752725" cy="491625"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>6600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>60825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>116</xdr:col>
-      <xdr:colOff>63750</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Přímá spojnice 28"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="0"/>
-          <a:endCxn id="3" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9245850" y="2632575"/>
-          <a:ext cx="1866900" cy="548775"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>116</xdr:col>
-      <xdr:colOff>63750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>60825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>133</xdr:col>
-      <xdr:colOff>92325</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Přímá spojnice 30"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="0"/>
-          <a:endCxn id="3" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11112750" y="2632575"/>
-          <a:ext cx="1647825" cy="529725"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>54225</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>60825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>92325</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Přímá spojnice 32"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="0"/>
-          <a:endCxn id="9" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1197225" y="4251825"/>
-          <a:ext cx="800100" cy="482100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>92325</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>60825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>44700</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Přímá spojnice 34"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1997325" y="4251825"/>
-          <a:ext cx="904875" cy="463050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>25650</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>22725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>25650</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Přímá spojnice 37"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="0"/>
-          <a:endCxn id="8" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4502400" y="4213725"/>
-          <a:ext cx="1905000" cy="501150"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>25650</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>22725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>35175</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Přímá spojnice 39"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6407400" y="4213725"/>
-          <a:ext cx="1533525" cy="482100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>63750</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>79875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>25650</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Přímá spojnice 41"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="0"/>
-          <a:endCxn id="13" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3683250" y="5794875"/>
-          <a:ext cx="819150" cy="463050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>25650</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>79875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>54225</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Přímá spojnice 43"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="14" idx="0"/>
-          <a:endCxn id="13" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4502400" y="5794875"/>
-          <a:ext cx="885825" cy="444000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>60825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>35175</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Přímá spojnice 45"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="17" idx="0"/>
-          <a:endCxn id="12" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7200900" y="5775825"/>
-          <a:ext cx="740025" cy="463050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>35175</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>60825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>44700</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Přímá spojnice 47"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="2"/>
-          <a:endCxn id="16" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7940925" y="5775825"/>
-          <a:ext cx="962025" cy="444000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>25650</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>3675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>63750</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Přímá spojnice 50"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="0"/>
-          <a:endCxn id="15" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2787900" y="7337925"/>
-          <a:ext cx="895350" cy="405900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>63750</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>3675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>16125</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Přímá spojnice 52"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="0"/>
-          <a:endCxn id="15" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3683250" y="7337925"/>
-          <a:ext cx="809625" cy="386850"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -30811,8 +29048,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30828,7 +29065,7 @@
   <dimension ref="A1:A200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DF61" sqref="DF61"/>
+      <selection activeCell="X93" sqref="X1:BV93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31038,7 +29275,8 @@
     <row r="200" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/návrhy/obrázky.xlsx
+++ b/návrhy/obrázky.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="hodnota" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="CJSON strom" sheetId="9" r:id="rId9"/>
     <sheet name="Semi huffman" sheetId="10" r:id="rId10"/>
     <sheet name="Adapt huffman" sheetId="11" r:id="rId11"/>
+    <sheet name="LZ77 okno" sheetId="12" r:id="rId12"/>
+    <sheet name="LZ78slovnik" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'Adapt huffman'!$X$1:$BV$93</definedName>
@@ -32,6 +34,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">číslo!$A$2:$R$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">hodnota!$A$1:$M$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">komprese!$A$14:$X$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'LZ77 okno'!$B$4:$N$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">LZ78slovnik!$B$2:$M$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">objekt!$A$2:$N$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">pole!$A$3:$M$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">řetězec!$A$1:$P$24</definedName>
@@ -11809,6 +11813,1595 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Přímá spojnice se šipkou 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="1333500"/>
+          <a:ext cx="7934325" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209548</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>372748</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Zaoblený obdélník 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819148" y="971550"/>
+          <a:ext cx="5040000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5400" baseline="0"/>
+            <a:t>...ABRAB ABRA...</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextovéPole 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="914400"/>
+          <a:ext cx="1609725" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Vstupní data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4026</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Přímá spojnice 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514724" y="962526"/>
+          <a:ext cx="0" cy="756000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>44100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Přímá spojnice se šipkou 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="2286001"/>
+          <a:ext cx="1530000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextovéPole 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="1781175"/>
+          <a:ext cx="1752600" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Nalezená fráze</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>458100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Přímá spojnice se šipkou 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="2895601"/>
+          <a:ext cx="1944000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextovéPole 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="2390775"/>
+          <a:ext cx="866775" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Offset</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>391800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Přímá spojnice se šipkou 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="3514726"/>
+          <a:ext cx="5040000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextovéPole 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123951" y="3009900"/>
+          <a:ext cx="2343150" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zkomprimovaná část</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>181476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>65976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Přímá spojnice 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3514724" y="1705476"/>
+          <a:ext cx="0" cy="1980000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextovéPole 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619501" y="3009900"/>
+          <a:ext cx="2343150" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zpracovávaná část</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextovéPole 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="561975"/>
+          <a:ext cx="1638300" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Posuvné okno</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Přímá spojnice se šipkou 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="638175" y="1133475"/>
+          <a:ext cx="7296150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Zaoblený obdélník 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="771525"/>
+          <a:ext cx="2314575" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5400" baseline="0"/>
+            <a:t>ABRA...</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextovéPole 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="714375"/>
+          <a:ext cx="1609725" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Vstupní data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Přímá spojnice se šipkou 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248025" y="2085976"/>
+          <a:ext cx="1620000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextovéPole 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="1581150"/>
+          <a:ext cx="1752600" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Nalezená fráze</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Přímá spojnice se šipkou 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="638175" y="600075"/>
+          <a:ext cx="4914900" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextovéPole 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857251" y="95250"/>
+          <a:ext cx="2343150" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zkomprimovaná část</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Přímá spojnice 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3248026" y="371474"/>
+          <a:ext cx="0" cy="1933576"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextovéPole 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352801" y="95250"/>
+          <a:ext cx="2343150" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zpracovávaná část</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Zaoblený obdélník 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="2009775"/>
+          <a:ext cx="2266950" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextovéPole 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638174" y="2466975"/>
+          <a:ext cx="2886075" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ABRA</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="5400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>433385</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95248</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextovéPole 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1688306" y="1935958"/>
+          <a:ext cx="809621" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>404810</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66673</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextovéPole 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1678781" y="3174208"/>
+          <a:ext cx="771521" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114298</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Pravoúhlá spojnice 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2990850" y="2095499"/>
+          <a:ext cx="1143000" cy="876299"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextovéPole 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="1619250"/>
+          <a:ext cx="923925" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Slovník</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -29064,7 +30657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X93" sqref="X1:BV93"/>
     </sheetView>
   </sheetViews>
@@ -29280,6 +30873,38 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/návrhy/obrázky.xlsx
+++ b/návrhy/obrázky.xlsx
@@ -12474,13 +12474,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -12491,8 +12491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590800" y="561975"/>
-          <a:ext cx="1638300" cy="342900"/>
+          <a:off x="2486025" y="561975"/>
+          <a:ext cx="1685925" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12526,7 +12526,7 @@
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Posuvné okno</a:t>
+            <a:t>Klouzavé okno</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12588,13 +12588,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>158025</xdr:rowOff>
     </xdr:to>
@@ -12605,7 +12605,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3219450" y="771525"/>
+          <a:off x="3228975" y="771525"/>
           <a:ext cx="2314575" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -30878,7 +30878,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30894,7 +30894,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/návrhy/obrázky.xlsx
+++ b/návrhy/obrázky.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="hodnota" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Adapt huffman" sheetId="11" r:id="rId11"/>
     <sheet name="LZ77 okno" sheetId="12" r:id="rId12"/>
     <sheet name="LZ78slovnik" sheetId="13" r:id="rId13"/>
+    <sheet name="XGrind architektura" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'Adapt huffman'!$X$1:$BV$93</definedName>
@@ -40,6 +41,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">pole!$A$3:$M$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">řetězec!$A$1:$P$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Semi huffman'!$A$12:$H$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'XGrind architektura'!$E$2:$N$28</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -13402,6 +13404,1982 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Vývojový diagram: děrná páska 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2543175" y="428625"/>
+          <a:ext cx="923925" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPunchedTape">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextovéPole 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790825" y="523875"/>
+          <a:ext cx="447675" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100"/>
+            <a:t>XML</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100"/>
+            <a:t>Doc</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Vývojový diagram: děrná páska 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7172325" y="428625"/>
+          <a:ext cx="923925" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPunchedTape">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextovéPole 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="628650"/>
+          <a:ext cx="447675" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100"/>
+            <a:t>DTD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Obdélník 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="523875"/>
+          <a:ext cx="1190625" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100"/>
+            <a:t>XML-Parser</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Obdélník 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543550" y="523875"/>
+          <a:ext cx="1190625" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100"/>
+            <a:t>DTD-Parser</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Zaoblený obdélník 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400551" y="1524000"/>
+          <a:ext cx="1276350" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Frequency</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Tables</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Zaoblený obdélník 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267451" y="1524000"/>
+          <a:ext cx="981074" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Symbol</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Table</a:t>
+          </a:r>
+          <a:endParaRPr lang="cs-CZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Pravoúhlá spojnice 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4421982" y="907256"/>
+          <a:ext cx="590550" cy="642938"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Pravoúhlá spojnice 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6153150" y="919162"/>
+          <a:ext cx="590550" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Obdélník 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="1371600"/>
+          <a:ext cx="3143250" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Obdélník 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="2390775"/>
+          <a:ext cx="1190625" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100"/>
+            <a:t>XGrind Kernel</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Přímá spojnice se šipkou 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="914400"/>
+          <a:ext cx="0" cy="1476000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>197167</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Přímá spojnice se šipkou 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3245167" y="728663"/>
+          <a:ext cx="555308" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>79057</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Přímá spojnice se šipkou 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6734175" y="728663"/>
+          <a:ext cx="660082" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Přímá spojnice se šipkou 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4705350" y="1924050"/>
+          <a:ext cx="0" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Pravoúhlá spojnice 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="21" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5534025" y="1371600"/>
+          <a:ext cx="681038" cy="1766888"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Obdélník 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="3476625"/>
+          <a:ext cx="1428750" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100"/>
+            <a:t>Huffman-Compressor</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Obdélník 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657725" y="3476625"/>
+          <a:ext cx="1190625" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100"/>
+            <a:t>Enum-encoder</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Zaoblený obdélník 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819399" y="3362325"/>
+          <a:ext cx="3152775" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>128589</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Pravoúhlá spojnice 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4114801" y="3081337"/>
+          <a:ext cx="561975" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Obdélník 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="4352925"/>
+          <a:ext cx="400050" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Obdélník 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876675" y="4352925"/>
+          <a:ext cx="400050" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Obdélník 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="4352925"/>
+          <a:ext cx="400050" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Obdélník 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="4352925"/>
+          <a:ext cx="400050" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="b" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Obdélník 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="4352925"/>
+          <a:ext cx="400050" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Přímá spojnice se šipkou 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4400550" y="4019550"/>
+          <a:ext cx="0" cy="338400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextovéPole 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="4133850"/>
+          <a:ext cx="2352675" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100"/>
+            <a:t>Compressed internal Representation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Obdélník 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="4924425"/>
+          <a:ext cx="1190625" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100"/>
+            <a:t>XML-Gen</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76191</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114303</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Šipka ohnutá nahoru 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4686293" y="4438648"/>
+          <a:ext cx="476253" cy="1162058"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 25833"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Vývojový diagram: děrná páska 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6819899" y="3181351"/>
+          <a:ext cx="1562100" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPunchedTape">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>355449</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="TextovéPole 58"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058025" y="3670856"/>
+          <a:ext cx="1222224" cy="853519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1100"/>
+            <a:t>Semistructured Compressed XML Document</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Šipka ohnutá nahoru 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715125" y="4781551"/>
+          <a:ext cx="990600" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 25833"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="cs-CZ" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -30893,8 +32871,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/návrhy/obrázky.xlsx
+++ b/návrhy/obrázky.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="hodnota" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="LZ77 okno" sheetId="12" r:id="rId12"/>
     <sheet name="LZ78slovnik" sheetId="13" r:id="rId13"/>
     <sheet name="XGrind architektura" sheetId="14" r:id="rId14"/>
+    <sheet name="Struktura knihovnz" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'Adapt huffman'!$X$1:$BV$93</definedName>
@@ -41,6 +42,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">pole!$A$3:$M$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">řetězec!$A$1:$P$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'Semi huffman'!$A$12:$H$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'Struktura knihovnz'!$A$4:$W$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'XGrind architektura'!$E$2:$N$28</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -15380,6 +15382,571 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Zaoblený obdélník 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304799" y="600075"/>
+          <a:ext cx="13392000" cy="1224000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Knihovna tříd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Zaoblený obdélník 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190875" y="800100"/>
+          <a:ext cx="10353675" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:t>DataCompression</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>276075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Zaoblený obdélník 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="1981200"/>
+          <a:ext cx="13392000" cy="1224000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Implementované</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>třídy</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Zaoblený obdélník 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190875" y="2171700"/>
+          <a:ext cx="4572000" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2800"/>
+            <a:t>AdaptiveHuffmanCompressor</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Zaoblený obdélník 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="2171700"/>
+          <a:ext cx="2686050" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2800"/>
+            <a:t>LZ78Compressor</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Zaoblený obdélník 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10706100" y="2171700"/>
+          <a:ext cx="2857500" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2800"/>
+            <a:t>JsonHCompressor</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>276075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Zaoblený obdélník 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="3390900"/>
+          <a:ext cx="13392000" cy="1224000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Metody tříd</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Zaoblený obdélník 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200400" y="3581400"/>
+          <a:ext cx="1714500" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2800"/>
+            <a:t>Compress</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Zaoblený obdélník 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="3581400"/>
+          <a:ext cx="2057400" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="2800"/>
+            <a:t>Decompress</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -32887,7 +33454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -32895,6 +33462,22 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:W25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="24" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/návrhy/obrázky.xlsx
+++ b/návrhy/obrázky.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="7755" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="hodnota" sheetId="1" r:id="rId1"/>
@@ -15502,7 +15502,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="cs-CZ" sz="3600"/>
+            <a:rPr lang="cs-CZ" sz="3600">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
             <a:t>DataCompression</a:t>
           </a:r>
         </a:p>
@@ -15639,7 +15642,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="cs-CZ" sz="2800"/>
+            <a:rPr lang="cs-CZ" sz="2800">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
             <a:t>AdaptiveHuffmanCompressor</a:t>
           </a:r>
         </a:p>
@@ -15696,7 +15702,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="cs-CZ" sz="2800"/>
+            <a:rPr lang="cs-CZ" sz="2800">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
             <a:t>LZ78Compressor</a:t>
           </a:r>
         </a:p>
@@ -15753,7 +15762,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="cs-CZ" sz="2800"/>
+            <a:rPr lang="cs-CZ" sz="2800">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
             <a:t>JsonHCompressor</a:t>
           </a:r>
         </a:p>
@@ -15879,7 +15891,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="cs-CZ" sz="2800"/>
+            <a:rPr lang="cs-CZ" sz="2800">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
             <a:t>Compress</a:t>
           </a:r>
         </a:p>
@@ -15936,7 +15951,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="cs-CZ" sz="2800"/>
+            <a:rPr lang="cs-CZ" sz="2800">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
             <a:t>Decompress</a:t>
           </a:r>
         </a:p>
@@ -33471,7 +33489,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:W25"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/návrhy/obrázky.xlsx
+++ b/návrhy/obrázky.xlsx
@@ -32,7 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">'Adapt huffman'!$X$1:$BV$93</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'binárni strom Z1'!$A$1:$Z$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'binární strom Z2'!$A$1:$AF$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'CJSON strom'!$C$5:$V$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'CJSON strom'!$C$5:$V$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">číslo!$A$2:$R$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">hodnota!$A$1:$M$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">komprese!$A$14:$X$22</definedName>
@@ -15646,7 +15646,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>AdaptiveHuffmanCompressor</a:t>
+            <a:t>AdaptiveHuffman</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15656,13 +15656,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -15673,7 +15673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7886700" y="2171700"/>
+          <a:off x="7877175" y="2171700"/>
           <a:ext cx="2686050" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -15706,7 +15706,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>LZ78Compressor</a:t>
+            <a:t>LZ77</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15716,13 +15716,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -15733,7 +15733,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10706100" y="2171700"/>
+          <a:off x="10687050" y="2171700"/>
           <a:ext cx="2857500" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -15766,7 +15766,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>JsonHCompressor</a:t>
+            <a:t>JsonH</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15851,7 +15851,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -15863,7 +15863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3200400" y="3581400"/>
-          <a:ext cx="1714500" cy="857250"/>
+          <a:ext cx="2019300" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -15905,13 +15905,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -15922,8 +15922,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5057775" y="3581400"/>
-          <a:ext cx="2057400" cy="857250"/>
+          <a:off x="5353050" y="3581400"/>
+          <a:ext cx="2438400" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -32917,6 +32917,316 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120617</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>98207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextovéPole 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2073088" y="8202707"/>
+          <a:ext cx="468000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>320490</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>6723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>183373</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>93723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="TextovéPole 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4556314" y="8198223"/>
+          <a:ext cx="468000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>316009</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>178891</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>100445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextovéPole 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972303" y="8204945"/>
+          <a:ext cx="468000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>479611</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>8961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342494</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="TextovéPole 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9556376" y="8200461"/>
+          <a:ext cx="468000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542365</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>405247</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>91479</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="TextovéPole 58"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12039600" y="8195979"/>
+          <a:ext cx="468000" cy="468000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="cs-CZ" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -33489,7 +33799,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="A4" sqref="A4:W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33629,7 +33939,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+      <selection activeCell="V45" sqref="C5:V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
